--- a/untranslated/downloads/data-excel/11.5.2.xlsx
+++ b/untranslated/downloads/data-excel/11.5.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="52">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -360,7 +360,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -443,11 +443,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -770,7 +766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -874,6 +872,9 @@
       <c r="P4" s="14">
         <v>2019</v>
       </c>
+      <c r="Q4" s="14">
+        <v>2020</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -885,21 +886,22 @@
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-    </row>
-    <row r="6" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+    </row>
+    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>41</v>
       </c>
@@ -909,56 +911,57 @@
       <c r="C6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="34">
-        <f t="shared" ref="D6:O6" si="0">D7/D8*100</f>
+      <c r="D6" s="32">
+        <f t="shared" ref="D6:N6" si="0">D7/D8*100</f>
         <v>0.10246818658794328</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="32">
         <f t="shared" si="0"/>
         <v>0.65742194211559124</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="32">
         <f t="shared" si="0"/>
         <v>3.7073315214123242E-2</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="32">
         <f t="shared" si="0"/>
         <v>0.23456080316087585</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="32">
         <f t="shared" si="0"/>
         <v>0.32864888906605183</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="32">
         <f t="shared" si="0"/>
         <v>0.29790193167613238</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="32">
         <f t="shared" si="0"/>
         <v>6.2089284729188267E-2</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="32">
         <f t="shared" si="0"/>
         <v>0.11372768247091296</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="32">
         <f t="shared" si="0"/>
         <v>0.53209207938685588</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="32">
         <f t="shared" si="0"/>
         <v>0.2112395744809494</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="32">
         <f t="shared" si="0"/>
         <v>0.19367522395465053</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="32">
         <v>0.21331765327398514</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="32">
         <v>5.2301500219592005E-2</v>
       </c>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -970,44 +973,47 @@
       <c r="C7" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="34">
         <v>145.4</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="34">
         <v>1235.9000000000001</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="34">
         <v>74.599999999999994</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>516.9</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="34">
         <v>939.9</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="34">
         <v>924.9</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="34">
         <v>220.6</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="34">
         <v>455.7</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="34">
         <v>2290.6</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="34">
         <v>1006.2</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="34">
         <v>1027.4000000000001</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="34">
         <v>1214.5999999999999</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="34">
         <v>323.8</v>
+      </c>
+      <c r="Q7" s="34">
+        <v>265.8</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1020,45 +1026,46 @@
       <c r="C8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="35">
         <v>141897.70000000001</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>187991.9</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="36">
         <v>201222.9</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="37">
         <v>220369.3</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="37">
         <v>285989.09999999998</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="36">
         <v>310471.3</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="38">
         <v>355294.8</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="38">
         <v>400694</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="38">
         <v>430489.4</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="38">
         <v>476331.2</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="38">
         <v>530475.69999999995</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="34">
         <v>569385.6</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="34">
         <v>619102.69999999995</v>
       </c>
+      <c r="Q8" s="34"/>
     </row>
     <row r="9" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
@@ -1070,21 +1077,22 @@
       <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-    </row>
-    <row r="10" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>41</v>
       </c>
@@ -1094,54 +1102,54 @@
       <c r="C10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <f t="shared" ref="D10:N10" si="1">D11/D12*100</f>
         <v>0.35895057371594508</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="32">
         <f t="shared" si="1"/>
         <v>2.1262718497260633</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="32">
         <f t="shared" si="1"/>
         <v>0.40389905703881562</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="32">
         <f t="shared" si="1"/>
         <v>0.3331383668590901</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="32">
         <f t="shared" si="1"/>
         <v>4.3078124999999998</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="32">
         <f t="shared" si="1"/>
         <v>1.9565741329068163</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="32">
         <f t="shared" si="1"/>
         <v>2.9689644252084875E-2</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="32">
         <f t="shared" si="1"/>
         <v>0.25113038858805564</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="32">
         <f t="shared" si="1"/>
         <v>3.4380474132897345</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="32">
         <f t="shared" si="1"/>
         <v>2.2104997268449713</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="32">
         <f t="shared" si="1"/>
         <v>0.75356267687790601</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="32">
         <v>1.0352068504731518</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="32">
         <v>0.11389691583067656</v>
       </c>
       <c r="Q10" s="32"/>
@@ -1156,44 +1164,47 @@
       <c r="C11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="34">
         <v>17.8</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="34">
         <v>130.4</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="34">
         <v>25.4</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>26.2</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="34">
         <v>551.4</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="34">
         <v>267.89999999999998</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="34">
         <v>4.5</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="34">
         <v>41.6</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="34">
         <v>588.79999999999995</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="34">
         <v>376.3</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="34">
         <v>135</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="34">
         <v>189.8</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="34">
         <v>22.9</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>75.599999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1206,46 +1217,46 @@
       <c r="C12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="35">
         <v>4958.8999999999996</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36">
         <v>6132.8</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <v>6288.7</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="37">
         <v>7864.6</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="37">
         <v>12800</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="36">
         <v>13692.3</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="38">
         <v>15156.8</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="38">
         <v>16565.099999999999</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="38">
         <v>17126</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M12" s="38">
         <v>17023.3</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N12" s="38">
         <v>17914.900000000001</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="34">
         <v>18334.5</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="34">
         <v>20105.900000000001</v>
       </c>
-      <c r="Q12" s="30"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
@@ -1257,21 +1268,22 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-    </row>
-    <row r="14" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+    </row>
+    <row r="14" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>41</v>
       </c>
@@ -1281,56 +1293,57 @@
       <c r="C14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="32">
         <f t="shared" ref="D14:N14" si="2">D15/D16*100</f>
         <v>0.41211761725580326</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="32">
         <f t="shared" si="2"/>
         <v>0.13699417111897721</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="32">
         <f t="shared" si="2"/>
         <v>1.5857097551149852E-2</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="32">
         <f t="shared" si="2"/>
         <v>1.1547187189756636</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="32">
         <f t="shared" si="2"/>
         <v>0.4532643574382938</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="32">
         <f t="shared" si="2"/>
         <v>1.0164247962138719</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="32">
         <f t="shared" si="2"/>
         <v>0.10130901916873285</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="32">
         <f t="shared" si="2"/>
         <v>7.247908676350677E-2</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="32">
         <f t="shared" si="2"/>
         <v>0.17286804541290271</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="32">
         <f t="shared" si="2"/>
         <v>0.44151746683392251</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="32">
         <f t="shared" si="2"/>
         <v>0.19622195137093956</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="32">
         <v>0.10885194791232716</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="32">
         <v>0.23462986721450702</v>
       </c>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -1342,44 +1355,47 @@
       <c r="C15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="34">
         <v>66.7</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="34">
         <v>31</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="34">
         <v>3.7</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="34">
         <v>305.89999999999998</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="34">
         <v>148.6</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="34">
         <v>375.2</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="34">
         <v>38</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="34">
         <v>31.2</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="34">
         <v>85.1</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="34">
         <v>232.3</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="34">
         <v>120.1</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="34">
         <v>72.900000000000006</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="34">
         <v>168.8</v>
+      </c>
+      <c r="Q15" s="34">
+        <v>175.1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1392,47 +1408,48 @@
       <c r="C16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="35">
         <v>16184.7</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="36">
         <v>22628.7</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="36">
         <v>23333.4</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="37">
         <v>26491.3</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="37">
         <v>32784.400000000001</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="36">
         <v>36913.699999999997</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="38">
         <v>37509</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="38">
         <v>43046.9</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="38">
         <v>49228.3</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="38">
         <v>52614</v>
       </c>
-      <c r="N16" s="40">
+      <c r="N16" s="38">
         <v>61206.2</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="38">
         <v>66971.7</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="38">
         <v>71943.100000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="38"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>12</v>
       </c>
@@ -1442,21 +1459,22 @@
       <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-    </row>
-    <row r="18" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+    </row>
+    <row r="18" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>41</v>
       </c>
@@ -1466,58 +1484,59 @@
       <c r="C18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="32">
         <f t="shared" ref="D18:N18" si="3">D19/D20*100</f>
         <v>3.2387824768912868E-3</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="32">
         <f t="shared" si="3"/>
         <v>3.292599177790948E-3</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="32">
         <f t="shared" si="3"/>
         <v>3.4456744091575148E-2</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="32">
         <f t="shared" si="3"/>
         <v>1.6919567197471088E-3</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="32">
         <f t="shared" si="3"/>
         <v>1.2270876117402187E-2</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="32">
         <f t="shared" si="3"/>
         <v>0.1121020239409966</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="32">
         <f t="shared" si="3"/>
         <v>0.14830592040389698</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="32">
         <f t="shared" si="3"/>
         <v>0.68585838169761015</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="32">
         <f t="shared" si="3"/>
         <v>1.5295896130932872E-2</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18" s="32">
         <f t="shared" si="3"/>
         <v>0.16956708384241984</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18" s="32">
         <f t="shared" si="3"/>
         <v>0.13072808713135689</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O18" s="32">
         <v>0.11036279910995825</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18" s="32">
         <v>1.3155087819099765E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>44</v>
       </c>
@@ -1527,47 +1546,50 @@
       <c r="C19" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="34">
         <v>0.5</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="34">
         <v>0.7</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="34">
         <v>9.5</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="34">
         <v>0.6</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="34">
         <v>5.3</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="34">
         <v>40.4</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="34">
         <v>75.2</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="34">
         <v>356.3</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="34">
         <v>7.7</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="34">
         <v>102.7</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="34">
         <v>84.2</v>
       </c>
-      <c r="O19" s="36">
+      <c r="O19" s="34">
         <v>74.2</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="34">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>42</v>
       </c>
@@ -1577,47 +1599,48 @@
       <c r="C20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="35">
         <v>15437.9</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="36">
         <v>21259.8</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="36">
         <v>27570.799999999999</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="37">
         <v>35461.9</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="37">
         <v>43191.7</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="36">
         <v>36038.6</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="38">
         <v>50706</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="38">
         <v>51949.5</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="38">
         <v>50340.3</v>
       </c>
-      <c r="M20" s="40">
+      <c r="M20" s="38">
         <v>60566</v>
       </c>
-      <c r="N20" s="40">
+      <c r="N20" s="38">
         <v>64408.5</v>
       </c>
-      <c r="O20" s="40">
+      <c r="O20" s="38">
         <v>67232.800000000003</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="38">
         <v>84378</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="38"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>15</v>
       </c>
@@ -1627,21 +1650,22 @@
       <c r="C21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-    </row>
-    <row r="22" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+    </row>
+    <row r="22" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>41</v>
       </c>
@@ -1651,58 +1675,59 @@
       <c r="C22" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="32">
         <f t="shared" ref="D22:N22" si="4">D23/D24*100</f>
         <v>9.5689201473613695E-3</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="32">
         <f t="shared" si="4"/>
         <v>3.5206840186093297E-2</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="32">
         <f t="shared" si="4"/>
         <v>8.4561828790483979E-3</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="32">
         <f t="shared" si="4"/>
         <v>1.6509498804057954</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="32">
         <f t="shared" si="4"/>
         <v>1.5924614716449732</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="32">
         <f t="shared" si="4"/>
         <v>1.5623617868199913</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="32">
         <f t="shared" si="4"/>
         <v>0.74169192048898247</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="32">
         <f t="shared" si="4"/>
         <v>3.7975801466042569E-2</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="32">
         <f t="shared" si="4"/>
         <v>0.21439533574463815</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22" s="32">
         <f t="shared" si="4"/>
         <v>0.15729924947802046</v>
       </c>
-      <c r="N22" s="34">
+      <c r="N22" s="32">
         <f t="shared" si="4"/>
         <v>9.1701711526475299E-2</v>
       </c>
-      <c r="O22" s="34">
+      <c r="O22" s="32">
         <v>9.9505316426906232E-3</v>
       </c>
-      <c r="P22" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>44</v>
       </c>
@@ -1712,47 +1737,50 @@
       <c r="C23" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="34">
         <v>0.6</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="34">
         <v>2.8</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="34">
         <v>0.6</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="34">
         <v>120.1</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="34">
         <v>121</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="34">
         <v>141.30000000000001</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="34">
         <v>72.2</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="34">
         <v>4.3</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="34">
         <v>27.8</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="34">
         <v>22.3</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23" s="34">
         <v>12.8</v>
       </c>
-      <c r="O23" s="36">
+      <c r="O23" s="34">
         <v>1.4</v>
       </c>
-      <c r="P23" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P23" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="34">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>42</v>
       </c>
@@ -1762,47 +1790,48 @@
       <c r="C24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="35">
         <v>6270.3</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="36">
         <v>7953</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="36">
         <v>7095.4</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="37">
         <v>7274.6</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="37">
         <v>7598.3</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="36">
         <v>9044</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="38">
         <v>9734.5</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="38">
         <v>11323</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="38">
         <v>12966.7</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="38">
         <v>14176.8</v>
       </c>
-      <c r="N24" s="40">
+      <c r="N24" s="38">
         <v>13958.3</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="38">
         <v>14069.6</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P24" s="38">
         <v>14806.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" s="38"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>18</v>
       </c>
@@ -1812,21 +1841,22 @@
       <c r="C25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-    </row>
-    <row r="26" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+    </row>
+    <row r="26" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>41</v>
       </c>
@@ -1836,58 +1866,61 @@
       <c r="C26" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="32">
         <f t="shared" ref="D26:N26" si="5">D27/D28*100</f>
         <v>4.2932786337833324E-2</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="32">
         <f t="shared" si="5"/>
         <v>5.639405961296144</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="32">
         <f t="shared" si="5"/>
         <v>5.7255116191116541E-2</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="32">
         <f t="shared" si="5"/>
         <v>0.19852162660287834</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="32">
         <f t="shared" si="5"/>
         <v>0.36986938326922264</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="32">
         <f t="shared" si="5"/>
         <v>0.1783403594244167</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="32">
         <f t="shared" si="5"/>
         <v>1.0609497329333431E-2</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="32">
         <f t="shared" si="5"/>
         <v>3.5696553335518404E-3</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="32">
         <f t="shared" si="5"/>
         <v>4.3025606575266426</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26" s="32">
         <f t="shared" si="5"/>
         <v>4.9422187511440313E-2</v>
       </c>
-      <c r="N26" s="34">
+      <c r="N26" s="32">
         <f t="shared" si="5"/>
         <v>0.70285464225020877</v>
       </c>
-      <c r="O26" s="34">
+      <c r="O26" s="32">
         <v>2.9148693597865562E-2</v>
       </c>
-      <c r="P26" s="34">
+      <c r="P26" s="32">
         <v>5.8984602750043668E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>44</v>
       </c>
@@ -1897,47 +1930,50 @@
       <c r="C27" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="34">
         <v>6.3</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="34">
         <v>1024.9000000000001</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="34">
         <v>10.9</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="34">
         <v>40.5</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="34">
         <v>105</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="34">
         <v>48.1</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="34">
         <v>2.9</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="34">
         <v>1364.2</v>
       </c>
-      <c r="M27" s="36">
+      <c r="M27" s="34">
         <v>16.2</v>
       </c>
-      <c r="N27" s="36">
+      <c r="N27" s="34">
         <v>261.8</v>
       </c>
-      <c r="O27" s="36">
+      <c r="O27" s="34">
         <v>12.4</v>
       </c>
-      <c r="P27" s="36">
+      <c r="P27" s="34">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>42</v>
       </c>
@@ -1947,47 +1983,48 @@
       <c r="C28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="35">
         <v>14674.1</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="36">
         <v>18173.900000000001</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="36">
         <v>19037.599999999999</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="37">
         <v>20400.8</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="37">
         <v>28388.400000000001</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="36">
         <v>26970.9</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="38">
         <v>27334</v>
       </c>
-      <c r="K28" s="40">
+      <c r="K28" s="38">
         <v>30815.3</v>
       </c>
-      <c r="L28" s="40">
+      <c r="L28" s="38">
         <v>31706.7</v>
       </c>
-      <c r="M28" s="40">
+      <c r="M28" s="38">
         <v>32778.800000000003</v>
       </c>
-      <c r="N28" s="40">
+      <c r="N28" s="38">
         <v>37248.1</v>
       </c>
-      <c r="O28" s="40">
+      <c r="O28" s="38">
         <v>42540.5</v>
       </c>
-      <c r="P28" s="40">
+      <c r="P28" s="38">
         <v>44079.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" s="38"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>21</v>
       </c>
@@ -1997,21 +2034,22 @@
       <c r="C29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-    </row>
-    <row r="30" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+    </row>
+    <row r="30" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>41</v>
       </c>
@@ -2021,58 +2059,61 @@
       <c r="C30" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="32">
         <f t="shared" ref="D30:N30" si="6">D31/D32*100</f>
         <v>0.21097770154373929</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="32">
         <f t="shared" si="6"/>
         <v>5.1950505336733732E-2</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="32">
         <f t="shared" si="6"/>
         <v>0.40535398156880259</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="32">
         <f t="shared" si="6"/>
         <v>0.29973977138030167</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="32">
         <f t="shared" si="6"/>
         <v>4.5176640665000149E-2</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="32">
         <f t="shared" si="6"/>
         <v>0.51804706827648905</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="32">
         <f t="shared" si="6"/>
         <v>5.9490008382683E-2</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="32">
         <f t="shared" si="6"/>
         <v>8.0978812997835655E-3</v>
       </c>
-      <c r="L30" s="34">
+      <c r="L30" s="32">
         <f t="shared" si="6"/>
         <v>6.1364921328791878E-2</v>
       </c>
-      <c r="M30" s="34">
+      <c r="M30" s="32">
         <f t="shared" si="6"/>
         <v>0.51731756228544223</v>
       </c>
-      <c r="N30" s="34">
+      <c r="N30" s="32">
         <f t="shared" si="6"/>
         <v>9.2032029650591304E-2</v>
       </c>
-      <c r="O30" s="34">
+      <c r="O30" s="32">
         <v>4.7329596548996268E-3</v>
       </c>
-      <c r="P30" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P30" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>44</v>
       </c>
@@ -2082,47 +2123,50 @@
       <c r="C31" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="34">
         <v>12.3</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="34">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="34">
         <v>24.5</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="34">
         <v>22</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="34">
         <v>3</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="34">
         <v>49</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="34">
         <v>6.6</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="34">
         <v>8.9</v>
       </c>
-      <c r="M31" s="36">
+      <c r="M31" s="34">
         <v>76.099999999999994</v>
       </c>
-      <c r="N31" s="36">
+      <c r="N31" s="34">
         <v>14.7</v>
       </c>
-      <c r="O31" s="36">
+      <c r="O31" s="34">
         <v>0.7</v>
       </c>
-      <c r="P31" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P31" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>42</v>
       </c>
@@ -2132,47 +2176,48 @@
       <c r="C32" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="35">
         <v>5830</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="36">
         <v>8469.6</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="36">
         <v>6044.1</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="37">
         <v>7339.7</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="37">
         <v>6640.6</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="36">
         <v>9458.6</v>
       </c>
-      <c r="J32" s="40">
+      <c r="J32" s="38">
         <v>11094.3</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32" s="38">
         <v>13583.8</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="38">
         <v>14503.4</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32" s="38">
         <v>14710.5</v>
       </c>
-      <c r="N32" s="40">
+      <c r="N32" s="38">
         <v>15972.7</v>
       </c>
-      <c r="O32" s="40">
+      <c r="O32" s="38">
         <v>14789.9</v>
       </c>
-      <c r="P32" s="40">
+      <c r="P32" s="38">
         <v>16531.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="38"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>24</v>
       </c>
@@ -2182,21 +2227,22 @@
       <c r="C33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-    </row>
-    <row r="34" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+    </row>
+    <row r="34" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>41</v>
       </c>
@@ -2206,56 +2252,57 @@
       <c r="C34" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="32">
         <f>D35/D36*100</f>
         <v>3.5581611084519037E-2</v>
       </c>
-      <c r="E34" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="34">
+      <c r="E34" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="32">
         <f t="shared" ref="G34:N34" si="7">G35/G36*100</f>
         <v>5.7008527805071079E-3</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="32">
         <f t="shared" si="7"/>
         <v>1.326049532685937E-2</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="32">
         <f t="shared" si="7"/>
         <v>4.0345547750142395E-3</v>
       </c>
-      <c r="J34" s="34">
+      <c r="J34" s="32">
         <f t="shared" si="7"/>
         <v>2.9167907854234933E-2</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="32">
         <f t="shared" si="7"/>
         <v>3.3948249288784184E-2</v>
       </c>
-      <c r="L34" s="34">
+      <c r="L34" s="32">
         <f t="shared" si="7"/>
         <v>3.3196556265441837E-2</v>
       </c>
-      <c r="M34" s="34">
+      <c r="M34" s="32">
         <f t="shared" si="7"/>
         <v>0.11886239000127535</v>
       </c>
-      <c r="N34" s="34">
+      <c r="N34" s="32">
         <f t="shared" si="7"/>
         <v>0.23467780151573583</v>
       </c>
-      <c r="O34" s="34">
+      <c r="O34" s="32">
         <v>7.3427448865606105E-3</v>
       </c>
-      <c r="P34" s="34">
+      <c r="P34" s="32">
         <v>2.3302011546146723E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>44</v>
       </c>
@@ -2265,47 +2312,50 @@
       <c r="C35" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="34">
         <v>8.4</v>
       </c>
-      <c r="E35" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="36">
+      <c r="E35" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="34">
         <v>1.7</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="34">
         <v>5.6</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="34">
         <v>1.7</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="34">
         <v>14.1</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="34">
         <v>20</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="34">
         <v>24.4</v>
       </c>
-      <c r="M35" s="36">
+      <c r="M35" s="34">
         <v>93.2</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35" s="34">
         <v>207.5</v>
       </c>
-      <c r="O35" s="36">
+      <c r="O35" s="34">
         <v>6.1</v>
       </c>
-      <c r="P35" s="36">
+      <c r="P35" s="34">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" s="34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>42</v>
       </c>
@@ -2315,47 +2365,48 @@
       <c r="C36" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="35">
         <v>23607.7</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="36">
         <v>29137.3</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="36">
         <v>31566.400000000001</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="37">
         <v>29820.1</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="37">
         <v>42230.7</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="36">
         <v>42136</v>
       </c>
-      <c r="J36" s="40">
+      <c r="J36" s="38">
         <v>48340.800000000003</v>
       </c>
-      <c r="K36" s="40">
+      <c r="K36" s="38">
         <v>58913.2</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="38">
         <v>73501.600000000006</v>
       </c>
-      <c r="M36" s="40">
+      <c r="M36" s="38">
         <v>78410</v>
       </c>
-      <c r="N36" s="40">
+      <c r="N36" s="38">
         <v>88419.1</v>
       </c>
-      <c r="O36" s="40">
+      <c r="O36" s="38">
         <v>83075.199999999997</v>
       </c>
-      <c r="P36" s="40">
+      <c r="P36" s="38">
         <v>85829.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" s="38"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>27</v>
       </c>
@@ -2365,21 +2416,22 @@
       <c r="C37" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-    </row>
-    <row r="38" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+    </row>
+    <row r="38" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>41</v>
       </c>
@@ -2389,53 +2441,56 @@
       <c r="C38" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="32">
         <f>D39/D40*100</f>
         <v>6.3779047196494923E-2</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="32">
         <f>E39/E40*100</f>
         <v>6.0758144519468954E-2</v>
       </c>
-      <c r="F38" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38" s="34">
+      <c r="F38" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="32">
         <f>J39/J40*100</f>
         <v>5.1015871766504721E-4</v>
       </c>
-      <c r="K38" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" s="34">
+      <c r="K38" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="32">
         <f>L39/L40*100</f>
         <v>2.8177981460527187E-2</v>
       </c>
-      <c r="M38" s="34">
+      <c r="M38" s="32">
         <f>M39/M40*100</f>
         <v>4.7987695689455469E-2</v>
       </c>
-      <c r="N38" s="34">
+      <c r="N38" s="32">
         <f>N39/N40*10</f>
         <v>6.4607393116575046E-3</v>
       </c>
-      <c r="O38" s="34">
+      <c r="O38" s="32">
         <v>0.37255420274531015</v>
       </c>
-      <c r="P38" s="34">
+      <c r="P38" s="32">
         <v>4.6929382203002752E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>44</v>
       </c>
@@ -2445,47 +2500,50 @@
       <c r="C39" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="34">
         <v>32.200000000000003</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="34">
         <v>41.5</v>
       </c>
-      <c r="F39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="36">
+      <c r="F39" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="34">
         <v>0.7</v>
       </c>
-      <c r="K39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L39" s="36">
+      <c r="K39" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="34">
         <v>44.7</v>
       </c>
-      <c r="M39" s="36">
+      <c r="M39" s="34">
         <v>86.8</v>
       </c>
-      <c r="N39" s="36">
+      <c r="N39" s="34">
         <v>129.80000000000001</v>
       </c>
-      <c r="O39" s="36">
+      <c r="O39" s="34">
         <v>856.9</v>
       </c>
-      <c r="P39" s="36">
+      <c r="P39" s="34">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>42</v>
       </c>
@@ -2495,47 +2553,48 @@
       <c r="C40" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="35">
         <v>50486.8</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="36">
         <v>68303.600000000006</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="36">
         <v>73540.2</v>
       </c>
-      <c r="G40" s="39">
+      <c r="G40" s="37">
         <v>79638.5</v>
       </c>
-      <c r="H40" s="39">
+      <c r="H40" s="37">
         <v>103286.5</v>
       </c>
-      <c r="I40" s="38">
+      <c r="I40" s="36">
         <v>120408.2</v>
       </c>
-      <c r="J40" s="37">
+      <c r="J40" s="35">
         <v>137212.20000000001</v>
       </c>
-      <c r="K40" s="37">
+      <c r="K40" s="35">
         <v>152866.6</v>
       </c>
-      <c r="L40" s="37">
+      <c r="L40" s="35">
         <v>158634.5</v>
       </c>
-      <c r="M40" s="37">
+      <c r="M40" s="35">
         <v>180879.7</v>
       </c>
-      <c r="N40" s="37">
+      <c r="N40" s="35">
         <v>200905.8</v>
       </c>
-      <c r="O40" s="37">
+      <c r="O40" s="35">
         <v>230006.8</v>
       </c>
-      <c r="P40" s="37">
+      <c r="P40" s="35">
         <v>247179.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" s="35"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>30</v>
       </c>
@@ -2545,21 +2604,22 @@
       <c r="C41" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-    </row>
-    <row r="42" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+    </row>
+    <row r="42" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>41</v>
       </c>
@@ -2569,54 +2629,57 @@
       <c r="C42" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="33">
         <f>D43/D44*100</f>
         <v>1.5740241050548661E-2</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="33">
         <f>E43/E44*100</f>
         <v>3.3708622665677883E-3</v>
       </c>
-      <c r="F42" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" s="35">
+      <c r="F42" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="33">
         <f>I43/I44*100</f>
         <v>6.958061863495478E-3</v>
       </c>
-      <c r="J42" s="35">
+      <c r="J42" s="33">
         <f>J43/J44*100</f>
         <v>3.4601696032338848E-2</v>
       </c>
-      <c r="K42" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L42" s="35">
+      <c r="K42" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="33">
         <f>L43/L44*100</f>
         <v>0.61871994804709551</v>
       </c>
-      <c r="M42" s="35">
+      <c r="M42" s="33">
         <f>M43/M44*100</f>
         <v>1.1917956785488697E-3</v>
       </c>
-      <c r="N42" s="35">
+      <c r="N42" s="33">
         <f>N43/N44*100</f>
         <v>0.20202285650464327</v>
       </c>
-      <c r="O42" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="P42" s="34">
+      <c r="O42" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="P42" s="32">
         <v>1.16791390138719E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>44</v>
       </c>
@@ -2626,47 +2689,50 @@
       <c r="C43" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="34">
         <v>0.7</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="34">
         <v>0.2</v>
       </c>
-      <c r="F43" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="36">
+      <c r="F43" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="34">
         <v>6.3</v>
       </c>
-      <c r="K43" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L43" s="36">
+      <c r="K43" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="34">
         <v>139.1</v>
       </c>
-      <c r="M43" s="36">
+      <c r="M43" s="34">
         <v>0.3</v>
       </c>
-      <c r="N43" s="36">
+      <c r="N43" s="34">
         <v>61.5</v>
       </c>
-      <c r="O43" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="P43" s="36">
+      <c r="O43" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="P43" s="34">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q43" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
@@ -2676,47 +2742,48 @@
       <c r="C44" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="40">
         <v>4447.2</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="41">
         <v>5933.2</v>
       </c>
-      <c r="F44" s="43">
+      <c r="F44" s="41">
         <v>6746.3</v>
       </c>
-      <c r="G44" s="44">
+      <c r="G44" s="42">
         <v>6077.8</v>
       </c>
-      <c r="H44" s="44">
+      <c r="H44" s="42">
         <v>9068.5</v>
       </c>
-      <c r="I44" s="43">
+      <c r="I44" s="41">
         <v>15809</v>
       </c>
-      <c r="J44" s="42">
+      <c r="J44" s="40">
         <v>18207.2</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K44" s="40">
         <v>21630.6</v>
       </c>
-      <c r="L44" s="42">
+      <c r="L44" s="40">
         <v>22481.9</v>
       </c>
-      <c r="M44" s="42">
+      <c r="M44" s="40">
         <v>25172.1</v>
       </c>
-      <c r="N44" s="42">
+      <c r="N44" s="40">
         <v>30442.1</v>
       </c>
-      <c r="O44" s="42">
+      <c r="O44" s="40">
         <v>32364.6</v>
       </c>
-      <c r="P44" s="42">
+      <c r="P44" s="40">
         <v>34249.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" s="40"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>46</v>
       </c>
@@ -2739,7 +2806,7 @@
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2753,7 +2820,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2767,7 +2834,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>

--- a/untranslated/downloads/data-excel/11.5.2.xlsx
+++ b/untranslated/downloads/data-excel/11.5.2.xlsx
@@ -192,6 +192,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,7 +363,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -458,28 +461,31 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,9 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -961,7 +965,9 @@
       <c r="P6" s="32">
         <v>5.2301500219592005E-2</v>
       </c>
-      <c r="Q6" s="32"/>
+      <c r="Q6" s="32">
+        <v>4.4166007693658721E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -973,46 +979,46 @@
       <c r="C7" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="36">
         <v>145.4</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="36">
         <v>1235.9000000000001</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="36">
         <v>74.599999999999994</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="36">
         <v>516.9</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="36">
         <v>939.9</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="36">
         <v>924.9</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="36">
         <v>220.6</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="36">
         <v>455.7</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="36">
         <v>2290.6</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="36">
         <v>1006.2</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="36">
         <v>1027.4000000000001</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="36">
         <v>1214.5999999999999</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="36">
         <v>323.8</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="36">
         <v>265.8</v>
       </c>
     </row>
@@ -1026,46 +1032,48 @@
       <c r="C8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="38">
         <v>141897.70000000001</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="40">
         <v>187991.9</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="40">
         <v>201222.9</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="41">
         <v>220369.3</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="41">
         <v>285989.09999999998</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="40">
         <v>310471.3</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <v>355294.8</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="37">
         <v>400694</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="37">
         <v>430489.4</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="37">
         <v>476331.2</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="37">
         <v>530475.69999999995</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="36">
         <v>569385.6</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="36">
         <v>619102.69999999995</v>
       </c>
-      <c r="Q8" s="34"/>
+      <c r="Q8" s="36">
+        <v>601820.30000000005</v>
+      </c>
     </row>
     <row r="9" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
@@ -1152,7 +1160,9 @@
       <c r="P10" s="32">
         <v>0.11389691583067656</v>
       </c>
-      <c r="Q10" s="32"/>
+      <c r="Q10" s="32">
+        <v>0.36185407133694547</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1164,46 +1174,46 @@
       <c r="C11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="36">
         <v>17.8</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="36">
         <v>130.4</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="36">
         <v>25.4</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="36">
         <v>26.2</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="36">
         <v>551.4</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="36">
         <v>267.89999999999998</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="36">
         <v>4.5</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="36">
         <v>41.6</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="36">
         <v>588.79999999999995</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="36">
         <v>376.3</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="36">
         <v>135</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="36">
         <v>189.8</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="36">
         <v>22.9</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="36">
         <v>75.599999999999994</v>
       </c>
     </row>
@@ -1217,46 +1227,48 @@
       <c r="C12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="38">
         <v>4958.8999999999996</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="40">
         <v>6132.8</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="40">
         <v>6288.7</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="41">
         <v>7864.6</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="41">
         <v>12800</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="40">
         <v>13692.3</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="37">
         <v>15156.8</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="37">
         <v>16565.099999999999</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="37">
         <v>17126</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="37">
         <v>17023.3</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="37">
         <v>17914.900000000001</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="36">
         <v>18334.5</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="36">
         <v>20105.900000000001</v>
       </c>
-      <c r="Q12" s="34"/>
+      <c r="Q12" s="36">
+        <v>20892.400000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
@@ -1268,20 +1280,20 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
     </row>
     <row r="14" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
@@ -1343,7 +1355,9 @@
       <c r="P14" s="32">
         <v>0.23462986721450702</v>
       </c>
-      <c r="Q14" s="32"/>
+      <c r="Q14" s="32">
+        <v>0.27408710679222598</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -1355,46 +1369,46 @@
       <c r="C15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="36">
         <v>66.7</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="36">
         <v>31</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="36">
         <v>3.7</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="36">
         <v>305.89999999999998</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="36">
         <v>148.6</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="36">
         <v>375.2</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="36">
         <v>38</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="36">
         <v>31.2</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="36">
         <v>85.1</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="36">
         <v>232.3</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="36">
         <v>120.1</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="36">
         <v>72.900000000000006</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="36">
         <v>168.8</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="36">
         <v>175.1</v>
       </c>
     </row>
@@ -1408,46 +1422,48 @@
       <c r="C16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="38">
         <v>16184.7</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="40">
         <v>22628.7</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="40">
         <v>23333.4</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="41">
         <v>26491.3</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="41">
         <v>32784.400000000001</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="40">
         <v>36913.699999999997</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="37">
         <v>37509</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="37">
         <v>43046.9</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="37">
         <v>49228.3</v>
       </c>
-      <c r="M16" s="38">
+      <c r="M16" s="37">
         <v>52614</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="37">
         <v>61206.2</v>
       </c>
-      <c r="O16" s="38">
+      <c r="O16" s="37">
         <v>66971.7</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="37">
         <v>71943.100000000006</v>
       </c>
-      <c r="Q16" s="38"/>
+      <c r="Q16" s="37">
+        <v>63884.800000000003</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
@@ -1534,7 +1550,9 @@
       <c r="P18" s="32">
         <v>1.3155087819099765E-2</v>
       </c>
-      <c r="Q18" s="32"/>
+      <c r="Q18" s="32">
+        <v>4.6658384803364067E-4</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1546,46 +1564,46 @@
       <c r="C19" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="36">
         <v>0.5</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="36">
         <v>0.7</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="36">
         <v>9.5</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="36">
         <v>0.6</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="36">
         <v>5.3</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="36">
         <v>40.4</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="36">
         <v>75.2</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="36">
         <v>356.3</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="36">
         <v>7.7</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="36">
         <v>102.7</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="36">
         <v>84.2</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="36">
         <v>74.2</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="36">
         <v>11.1</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="36">
         <v>0.4</v>
       </c>
     </row>
@@ -1599,46 +1617,48 @@
       <c r="C20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="38">
         <v>15437.9</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="40">
         <v>21259.8</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="40">
         <v>27570.799999999999</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="41">
         <v>35461.9</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="41">
         <v>43191.7</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="40">
         <v>36038.6</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="37">
         <v>50706</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="37">
         <v>51949.5</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="37">
         <v>50340.3</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="37">
         <v>60566</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="37">
         <v>64408.5</v>
       </c>
-      <c r="O20" s="38">
+      <c r="O20" s="37">
         <v>67232.800000000003</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="37">
         <v>84378</v>
       </c>
-      <c r="Q20" s="38"/>
+      <c r="Q20" s="37">
+        <v>85729.5</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -1725,7 +1745,9 @@
       <c r="P22" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="Q22" s="32"/>
+      <c r="Q22" s="32">
+        <v>8.6032657053793982E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -1737,46 +1759,46 @@
       <c r="C23" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="36">
         <v>0.6</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="36">
         <v>2.8</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="36">
         <v>0.6</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="36">
         <v>120.1</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="36">
         <v>121</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="36">
         <v>141.30000000000001</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="36">
         <v>72.2</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="36">
         <v>4.3</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="36">
         <v>27.8</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="36">
         <v>22.3</v>
       </c>
-      <c r="N23" s="34">
+      <c r="N23" s="36">
         <v>12.8</v>
       </c>
-      <c r="O23" s="34">
+      <c r="O23" s="36">
         <v>1.4</v>
       </c>
-      <c r="P23" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="34">
+      <c r="P23" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="36">
         <v>14.6</v>
       </c>
     </row>
@@ -1790,46 +1812,48 @@
       <c r="C24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="38">
         <v>6270.3</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="40">
         <v>7953</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="40">
         <v>7095.4</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="41">
         <v>7274.6</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="41">
         <v>7598.3</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="40">
         <v>9044</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="37">
         <v>9734.5</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="37">
         <v>11323</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="37">
         <v>12966.7</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="37">
         <v>14176.8</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="37">
         <v>13958.3</v>
       </c>
-      <c r="O24" s="38">
+      <c r="O24" s="37">
         <v>14069.6</v>
       </c>
-      <c r="P24" s="38">
+      <c r="P24" s="37">
         <v>14806.7</v>
       </c>
-      <c r="Q24" s="38"/>
+      <c r="Q24" s="37">
+        <v>16970.3</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
@@ -1930,46 +1954,46 @@
       <c r="C27" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="36">
         <v>6.3</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="36">
         <v>1024.9000000000001</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="36">
         <v>10.9</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="36">
         <v>40.5</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="36">
         <v>105</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="36">
         <v>48.1</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="36">
         <v>2.9</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="36">
         <v>1364.2</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27" s="36">
         <v>16.2</v>
       </c>
-      <c r="N27" s="34">
+      <c r="N27" s="36">
         <v>261.8</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27" s="36">
         <v>12.4</v>
       </c>
-      <c r="P27" s="34">
+      <c r="P27" s="36">
         <v>2.6</v>
       </c>
-      <c r="Q27" s="34" t="s">
+      <c r="Q27" s="36" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1983,46 +2007,48 @@
       <c r="C28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="38">
         <v>14674.1</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="40">
         <v>18173.900000000001</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="40">
         <v>19037.599999999999</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="41">
         <v>20400.8</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="41">
         <v>28388.400000000001</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="40">
         <v>26970.9</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="37">
         <v>27334</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="37">
         <v>30815.3</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="37">
         <v>31706.7</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="37">
         <v>32778.800000000003</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="37">
         <v>37248.1</v>
       </c>
-      <c r="O28" s="38">
+      <c r="O28" s="37">
         <v>42540.5</v>
       </c>
-      <c r="P28" s="38">
+      <c r="P28" s="37">
         <v>44079.3</v>
       </c>
-      <c r="Q28" s="38"/>
+      <c r="Q28" s="37">
+        <v>47183.5</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
@@ -2123,46 +2149,46 @@
       <c r="C31" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="36">
         <v>12.3</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="36">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="36">
         <v>24.5</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="36">
         <v>22</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="36">
         <v>3</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="36">
         <v>49</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="36">
         <v>6.6</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L31" s="34">
+      <c r="L31" s="36">
         <v>8.9</v>
       </c>
-      <c r="M31" s="34">
+      <c r="M31" s="36">
         <v>76.099999999999994</v>
       </c>
-      <c r="N31" s="34">
+      <c r="N31" s="36">
         <v>14.7</v>
       </c>
-      <c r="O31" s="34">
+      <c r="O31" s="36">
         <v>0.7</v>
       </c>
-      <c r="P31" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q31" s="34" t="s">
+      <c r="P31" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="36" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2176,46 +2202,48 @@
       <c r="C32" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="38">
         <v>5830</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="40">
         <v>8469.6</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="40">
         <v>6044.1</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="41">
         <v>7339.7</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="41">
         <v>6640.6</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="40">
         <v>9458.6</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="37">
         <v>11094.3</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="37">
         <v>13583.8</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="37">
         <v>14503.4</v>
       </c>
-      <c r="M32" s="38">
+      <c r="M32" s="37">
         <v>14710.5</v>
       </c>
-      <c r="N32" s="38">
+      <c r="N32" s="37">
         <v>15972.7</v>
       </c>
-      <c r="O32" s="38">
+      <c r="O32" s="37">
         <v>14789.9</v>
       </c>
-      <c r="P32" s="38">
+      <c r="P32" s="37">
         <v>16531.2</v>
       </c>
-      <c r="Q32" s="38"/>
+      <c r="Q32" s="37">
+        <v>17405.3</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
@@ -2300,7 +2328,9 @@
       <c r="P34" s="32">
         <v>2.3302011546146723E-3</v>
       </c>
-      <c r="Q34" s="32"/>
+      <c r="Q34" s="32">
+        <v>1.1900270969169968E-5</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -2312,46 +2342,46 @@
       <c r="C35" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="36">
         <v>8.4</v>
       </c>
-      <c r="E35" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="34">
+      <c r="E35" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="36">
         <v>1.7</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="36">
         <v>5.6</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="36">
         <v>1.7</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="36">
         <v>14.1</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="36">
         <v>20</v>
       </c>
-      <c r="L35" s="34">
+      <c r="L35" s="36">
         <v>24.4</v>
       </c>
-      <c r="M35" s="34">
+      <c r="M35" s="36">
         <v>93.2</v>
       </c>
-      <c r="N35" s="34">
+      <c r="N35" s="36">
         <v>207.5</v>
       </c>
-      <c r="O35" s="34">
+      <c r="O35" s="36">
         <v>6.1</v>
       </c>
-      <c r="P35" s="34">
+      <c r="P35" s="36">
         <v>2</v>
       </c>
-      <c r="Q35" s="34">
+      <c r="Q35" s="36">
         <v>0.01</v>
       </c>
     </row>
@@ -2365,46 +2395,48 @@
       <c r="C36" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="38">
         <v>23607.7</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="40">
         <v>29137.3</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="40">
         <v>31566.400000000001</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="41">
         <v>29820.1</v>
       </c>
-      <c r="H36" s="37">
+      <c r="H36" s="41">
         <v>42230.7</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="40">
         <v>42136</v>
       </c>
-      <c r="J36" s="38">
+      <c r="J36" s="37">
         <v>48340.800000000003</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="37">
         <v>58913.2</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="37">
         <v>73501.600000000006</v>
       </c>
-      <c r="M36" s="38">
+      <c r="M36" s="37">
         <v>78410</v>
       </c>
-      <c r="N36" s="38">
+      <c r="N36" s="37">
         <v>88419.1</v>
       </c>
-      <c r="O36" s="38">
+      <c r="O36" s="37">
         <v>83075.199999999997</v>
       </c>
-      <c r="P36" s="38">
+      <c r="P36" s="37">
         <v>85829.5</v>
       </c>
-      <c r="Q36" s="38"/>
+      <c r="Q36" s="37">
+        <v>84031.7</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -2500,46 +2532,46 @@
       <c r="C39" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="36">
         <v>32.200000000000003</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="36">
         <v>41.5</v>
       </c>
-      <c r="F39" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="34">
+      <c r="F39" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="36">
         <v>0.7</v>
       </c>
-      <c r="K39" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="L39" s="34">
+      <c r="K39" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="36">
         <v>44.7</v>
       </c>
-      <c r="M39" s="34">
+      <c r="M39" s="36">
         <v>86.8</v>
       </c>
-      <c r="N39" s="34">
+      <c r="N39" s="36">
         <v>129.80000000000001</v>
       </c>
-      <c r="O39" s="34">
+      <c r="O39" s="36">
         <v>856.9</v>
       </c>
-      <c r="P39" s="34">
+      <c r="P39" s="36">
         <v>116</v>
       </c>
-      <c r="Q39" s="34" t="s">
+      <c r="Q39" s="36" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2553,46 +2585,48 @@
       <c r="C40" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="38">
         <v>50486.8</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="40">
         <v>68303.600000000006</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="40">
         <v>73540.2</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="41">
         <v>79638.5</v>
       </c>
-      <c r="H40" s="37">
+      <c r="H40" s="41">
         <v>103286.5</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40" s="40">
         <v>120408.2</v>
       </c>
-      <c r="J40" s="35">
+      <c r="J40" s="38">
         <v>137212.20000000001</v>
       </c>
-      <c r="K40" s="35">
+      <c r="K40" s="38">
         <v>152866.6</v>
       </c>
-      <c r="L40" s="35">
+      <c r="L40" s="38">
         <v>158634.5</v>
       </c>
-      <c r="M40" s="35">
+      <c r="M40" s="38">
         <v>180879.7</v>
       </c>
-      <c r="N40" s="35">
+      <c r="N40" s="38">
         <v>200905.8</v>
       </c>
-      <c r="O40" s="35">
+      <c r="O40" s="38">
         <v>230006.8</v>
       </c>
-      <c r="P40" s="35">
+      <c r="P40" s="38">
         <v>247179.9</v>
       </c>
-      <c r="Q40" s="35"/>
+      <c r="Q40" s="38">
+        <v>231841.7</v>
+      </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
@@ -2689,46 +2723,46 @@
       <c r="C43" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="36">
         <v>0.7</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="36">
         <v>0.2</v>
       </c>
-      <c r="F43" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="34">
+      <c r="F43" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J43" s="34">
+      <c r="J43" s="36">
         <v>6.3</v>
       </c>
-      <c r="K43" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="L43" s="34">
+      <c r="K43" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="36">
         <v>139.1</v>
       </c>
-      <c r="M43" s="34">
+      <c r="M43" s="36">
         <v>0.3</v>
       </c>
-      <c r="N43" s="34">
+      <c r="N43" s="36">
         <v>61.5</v>
       </c>
-      <c r="O43" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="P43" s="34">
+      <c r="O43" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="P43" s="36">
         <v>0.4</v>
       </c>
-      <c r="Q43" s="34" t="s">
+      <c r="Q43" s="36" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2742,46 +2776,48 @@
       <c r="C44" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="39">
         <v>4447.2</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="42">
         <v>5933.2</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="42">
         <v>6746.3</v>
       </c>
-      <c r="G44" s="42">
+      <c r="G44" s="43">
         <v>6077.8</v>
       </c>
-      <c r="H44" s="42">
+      <c r="H44" s="43">
         <v>9068.5</v>
       </c>
-      <c r="I44" s="41">
+      <c r="I44" s="42">
         <v>15809</v>
       </c>
-      <c r="J44" s="40">
+      <c r="J44" s="39">
         <v>18207.2</v>
       </c>
-      <c r="K44" s="40">
+      <c r="K44" s="39">
         <v>21630.6</v>
       </c>
-      <c r="L44" s="40">
+      <c r="L44" s="39">
         <v>22481.9</v>
       </c>
-      <c r="M44" s="40">
+      <c r="M44" s="39">
         <v>25172.1</v>
       </c>
-      <c r="N44" s="40">
+      <c r="N44" s="39">
         <v>30442.1</v>
       </c>
-      <c r="O44" s="40">
+      <c r="O44" s="39">
         <v>32364.6</v>
       </c>
-      <c r="P44" s="40">
+      <c r="P44" s="39">
         <v>34249.1</v>
       </c>
-      <c r="Q44" s="40"/>
+      <c r="Q44" s="39">
+        <v>33881.1</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">

--- a/untranslated/downloads/data-excel/11.5.2.xlsx
+++ b/untranslated/downloads/data-excel/11.5.2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="52">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -363,7 +363,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -486,6 +486,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,9 +779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14:T14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -782,7 +793,7 @@
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -793,7 +804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -813,7 +824,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -827,7 +838,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -879,8 +890,11 @@
       <c r="Q4" s="14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -904,8 +918,9 @@
       <c r="O5" s="34"/>
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
-    </row>
-    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>41</v>
       </c>
@@ -968,8 +983,12 @@
       <c r="Q6" s="32">
         <v>4.4166007693658721E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="32">
+        <f>R7/R8*100</f>
+        <v>0.26112215360929741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>44</v>
       </c>
@@ -1021,8 +1040,11 @@
       <c r="Q7" s="36">
         <v>265.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="34">
+        <v>1931.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>42</v>
       </c>
@@ -1074,8 +1096,11 @@
       <c r="Q8" s="36">
         <v>601820.30000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="34">
+        <v>739818.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
@@ -1099,8 +1124,9 @@
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="32"/>
+    </row>
+    <row r="10" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>41</v>
       </c>
@@ -1163,8 +1189,12 @@
       <c r="Q10" s="32">
         <v>0.36185407133694547</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="32">
+        <f>R11/R12*100</f>
+        <v>6.1995480785353285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>44</v>
       </c>
@@ -1216,8 +1246,11 @@
       <c r="Q11" s="36">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="34">
+        <v>1552.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>42</v>
       </c>
@@ -1269,8 +1302,11 @@
       <c r="Q12" s="36">
         <v>20892.400000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="34">
+        <v>25048.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>9</v>
       </c>
@@ -1294,8 +1330,9 @@
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
-    </row>
-    <row r="14" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>41</v>
       </c>
@@ -1358,8 +1395,12 @@
       <c r="Q14" s="32">
         <v>0.27408710679222598</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="32">
+        <f>R15/R16*100</f>
+        <v>0.15289385371573422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>44</v>
       </c>
@@ -1411,8 +1452,11 @@
       <c r="Q15" s="36">
         <v>175.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="34">
+        <v>125.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
@@ -1464,8 +1508,11 @@
       <c r="Q16" s="37">
         <v>63884.800000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="44">
+        <v>82213.899999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>12</v>
       </c>
@@ -1489,8 +1536,9 @@
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
-    </row>
-    <row r="18" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>41</v>
       </c>
@@ -1553,8 +1601,12 @@
       <c r="Q18" s="32">
         <v>4.6658384803364067E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="32">
+        <f>R19/R20*100</f>
+        <v>0.12440731654917085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>44</v>
       </c>
@@ -1606,8 +1658,11 @@
       <c r="Q19" s="36">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="34">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>42</v>
       </c>
@@ -1659,8 +1714,11 @@
       <c r="Q20" s="37">
         <v>85729.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="44">
+        <v>80059.600000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>15</v>
       </c>
@@ -1684,8 +1742,9 @@
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
       <c r="Q21" s="34"/>
-    </row>
-    <row r="22" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="34"/>
+    </row>
+    <row r="22" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>41</v>
       </c>
@@ -1748,8 +1807,12 @@
       <c r="Q22" s="32">
         <v>8.6032657053793982E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="32">
+        <f>R23/R24*100</f>
+        <v>5.2408765074798951E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>44</v>
       </c>
@@ -1801,8 +1864,11 @@
       <c r="Q23" s="36">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>42</v>
       </c>
@@ -1854,8 +1920,11 @@
       <c r="Q24" s="37">
         <v>16970.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="44">
+        <v>17172.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>18</v>
       </c>
@@ -1879,8 +1948,9 @@
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
       <c r="Q25" s="34"/>
-    </row>
-    <row r="26" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="34"/>
+    </row>
+    <row r="26" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>41</v>
       </c>
@@ -1943,8 +2013,12 @@
       <c r="Q26" s="32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="32">
+        <f>R27/R28*100</f>
+        <v>2.8058906055606046E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>44</v>
       </c>
@@ -1996,8 +2070,11 @@
       <c r="Q27" s="36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="34">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>42</v>
       </c>
@@ -2049,8 +2126,11 @@
       <c r="Q28" s="37">
         <v>47183.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="44">
+        <v>56666.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>21</v>
       </c>
@@ -2074,8 +2154,9 @@
       <c r="O29" s="34"/>
       <c r="P29" s="34"/>
       <c r="Q29" s="34"/>
-    </row>
-    <row r="30" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="34"/>
+    </row>
+    <row r="30" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>41</v>
       </c>
@@ -2138,8 +2219,12 @@
       <c r="Q30" s="32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="32">
+        <f>R31/R32*100</f>
+        <v>0.19015052770834487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>44</v>
       </c>
@@ -2191,8 +2276,11 @@
       <c r="Q31" s="36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="34">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>42</v>
       </c>
@@ -2244,8 +2332,11 @@
       <c r="Q32" s="37">
         <v>17405.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="44">
+        <v>30765.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>24</v>
       </c>
@@ -2269,8 +2360,9 @@
       <c r="O33" s="34"/>
       <c r="P33" s="34"/>
       <c r="Q33" s="34"/>
-    </row>
-    <row r="34" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="34"/>
+    </row>
+    <row r="34" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>41</v>
       </c>
@@ -2331,8 +2423,12 @@
       <c r="Q34" s="32">
         <v>1.1900270969169968E-5</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="32">
+        <f>R35/R36*100</f>
+        <v>7.1009394461267222E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>44</v>
       </c>
@@ -2384,8 +2480,11 @@
       <c r="Q35" s="36">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="34">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>42</v>
       </c>
@@ -2437,8 +2536,11 @@
       <c r="Q36" s="37">
         <v>84031.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="44">
+        <v>110267.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>27</v>
       </c>
@@ -2462,8 +2564,9 @@
       <c r="O37" s="34"/>
       <c r="P37" s="34"/>
       <c r="Q37" s="34"/>
-    </row>
-    <row r="38" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="34"/>
+    </row>
+    <row r="38" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>41</v>
       </c>
@@ -2521,8 +2624,11 @@
       <c r="Q38" s="32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>44</v>
       </c>
@@ -2574,8 +2680,11 @@
       <c r="Q39" s="36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>42</v>
       </c>
@@ -2627,8 +2736,11 @@
       <c r="Q40" s="38">
         <v>231841.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="45">
+        <v>297797.59999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>30</v>
       </c>
@@ -2652,8 +2764,9 @@
       <c r="O41" s="34"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="34"/>
-    </row>
-    <row r="42" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="34"/>
+    </row>
+    <row r="42" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>41</v>
       </c>
@@ -2712,8 +2825,11 @@
       <c r="Q42" s="32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>44</v>
       </c>
@@ -2765,8 +2881,11 @@
       <c r="Q43" s="36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R43" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2937,11 @@
       <c r="Q44" s="39">
         <v>33881.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="46">
+        <v>39827.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>46</v>
       </c>
@@ -2842,7 +2964,7 @@
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2856,7 +2978,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2870,7 +2992,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>

--- a/untranslated/downloads/data-excel/11.5.2.xlsx
+++ b/untranslated/downloads/data-excel/11.5.2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -779,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14:T14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +793,7 @@
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -804,7 +804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -838,7 +838,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -893,8 +893,11 @@
       <c r="R4" s="14">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -919,8 +922,9 @@
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
-    </row>
-    <row r="6" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="34"/>
+    </row>
+    <row r="6" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>41</v>
       </c>
@@ -978,17 +982,19 @@
         <v>0.21331765327398514</v>
       </c>
       <c r="P6" s="32">
-        <v>5.2301500219592005E-2</v>
+        <v>4.9509552683179234E-2</v>
       </c>
       <c r="Q6" s="32">
         <v>4.4166007693658721E-2</v>
       </c>
       <c r="R6" s="32">
-        <f>R7/R8*100</f>
-        <v>0.26112215360929741</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.24676750194768041</v>
+      </c>
+      <c r="S6" s="32">
+        <v>0.45060537180407323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>44</v>
       </c>
@@ -1043,8 +1049,11 @@
       <c r="R7" s="34">
         <v>1931.83</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="36">
+        <v>4599.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>42</v>
       </c>
@@ -1091,16 +1100,19 @@
         <v>569385.6</v>
       </c>
       <c r="P8" s="36">
-        <v>619102.69999999995</v>
+        <v>654015.19999999995</v>
       </c>
       <c r="Q8" s="36">
-        <v>601820.30000000005</v>
+        <v>639688.6</v>
       </c>
       <c r="R8" s="34">
-        <v>739818.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>782854.3</v>
+      </c>
+      <c r="S8" s="36">
+        <v>1020744.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
@@ -1125,8 +1137,9 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="R9" s="32"/>
-    </row>
-    <row r="10" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="32"/>
+    </row>
+    <row r="10" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>41</v>
       </c>
@@ -1184,17 +1197,19 @@
         <v>1.0352068504731518</v>
       </c>
       <c r="P10" s="32">
-        <v>0.11389691583067656</v>
+        <v>0.10428573380269503</v>
       </c>
       <c r="Q10" s="32">
-        <v>0.36185407133694547</v>
+        <v>0.32994514007393211</v>
       </c>
       <c r="R10" s="32">
-        <f>R11/R12*100</f>
-        <v>6.1995480785353285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>5.7337916723589819</v>
+      </c>
+      <c r="S10" s="32">
+        <v>11.235280554462966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>44</v>
       </c>
@@ -1249,8 +1264,11 @@
       <c r="R11" s="34">
         <v>1552.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="36">
+        <v>4141.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>42</v>
       </c>
@@ -1297,16 +1315,19 @@
         <v>18334.5</v>
       </c>
       <c r="P12" s="36">
-        <v>20105.900000000001</v>
+        <v>21958.9</v>
       </c>
       <c r="Q12" s="36">
-        <v>20892.400000000001</v>
+        <v>22912.9</v>
       </c>
       <c r="R12" s="34">
-        <v>25048.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27083.3</v>
+      </c>
+      <c r="S12" s="36">
+        <v>36864.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>9</v>
       </c>
@@ -1331,8 +1352,9 @@
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
-    </row>
-    <row r="14" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="35"/>
+    </row>
+    <row r="14" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>41</v>
       </c>
@@ -1390,17 +1412,19 @@
         <v>0.10885194791232716</v>
       </c>
       <c r="P14" s="32">
-        <v>0.23462986721450702</v>
+        <v>0.22365258591677686</v>
       </c>
       <c r="Q14" s="32">
-        <v>0.27408710679222598</v>
+        <v>0.2553714042364526</v>
       </c>
       <c r="R14" s="32">
-        <f>R15/R16*100</f>
-        <v>0.15289385371573422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.14402634410265402</v>
+      </c>
+      <c r="S14" s="32">
+        <v>0.13714441087278004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>44</v>
       </c>
@@ -1455,8 +1479,11 @@
       <c r="R15" s="34">
         <v>125.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="36">
+        <v>148.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
@@ -1503,16 +1530,19 @@
         <v>66971.7</v>
       </c>
       <c r="P16" s="37">
-        <v>71943.100000000006</v>
+        <v>75474.2</v>
       </c>
       <c r="Q16" s="37">
-        <v>63884.800000000003</v>
+        <v>68566.8</v>
       </c>
       <c r="R16" s="44">
-        <v>82213.899999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>87275.7</v>
+      </c>
+      <c r="S16" s="37">
+        <v>108126.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>12</v>
       </c>
@@ -1537,8 +1567,9 @@
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
-    </row>
-    <row r="18" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="34"/>
+    </row>
+    <row r="18" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>41</v>
       </c>
@@ -1596,17 +1627,19 @@
         <v>0.11036279910995825</v>
       </c>
       <c r="P18" s="32">
-        <v>1.3155087819099765E-2</v>
+        <v>1.2770569245247851E-2</v>
       </c>
       <c r="Q18" s="32">
-        <v>4.6658384803364067E-4</v>
+        <v>4.5222216318210645E-4</v>
       </c>
       <c r="R18" s="32">
-        <f>R19/R20*100</f>
-        <v>0.12440731654917085</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.12078217371532514</v>
+      </c>
+      <c r="S18" s="32">
+        <v>0.25756792346149271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>44</v>
       </c>
@@ -1661,8 +1694,11 @@
       <c r="R19" s="34">
         <v>99.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="36">
+        <v>276.97000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>42</v>
       </c>
@@ -1709,16 +1745,19 @@
         <v>67232.800000000003</v>
       </c>
       <c r="P20" s="37">
-        <v>84378</v>
+        <v>86918.6</v>
       </c>
       <c r="Q20" s="37">
-        <v>85729.5</v>
+        <v>88452.1</v>
       </c>
       <c r="R20" s="44">
-        <v>80059.600000000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>82462.5</v>
+      </c>
+      <c r="S20" s="37">
+        <v>107532.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>15</v>
       </c>
@@ -1743,8 +1782,9 @@
       <c r="P21" s="34"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="34"/>
-    </row>
-    <row r="22" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="34"/>
+    </row>
+    <row r="22" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>41</v>
       </c>
@@ -1805,14 +1845,16 @@
         <v>33</v>
       </c>
       <c r="Q22" s="32">
-        <v>8.6032657053793982E-2</v>
+        <v>8.0372576436522181E-2</v>
       </c>
       <c r="R22" s="32">
-        <f>R23/R24*100</f>
-        <v>5.2408765074798951E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4.9414438899046302E-3</v>
+      </c>
+      <c r="S22" s="32">
+        <v>2.4524285805813215E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>44</v>
       </c>
@@ -1867,8 +1909,11 @@
       <c r="R23" s="34">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="36">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>42</v>
       </c>
@@ -1915,16 +1960,19 @@
         <v>14069.6</v>
       </c>
       <c r="P24" s="37">
-        <v>14806.7</v>
+        <v>15545.6</v>
       </c>
       <c r="Q24" s="37">
-        <v>16970.3</v>
+        <v>18165.400000000001</v>
       </c>
       <c r="R24" s="44">
-        <v>17172.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>18213.3</v>
+      </c>
+      <c r="S24" s="37">
+        <v>28094.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>18</v>
       </c>
@@ -1949,8 +1997,9 @@
       <c r="P25" s="34"/>
       <c r="Q25" s="34"/>
       <c r="R25" s="34"/>
-    </row>
-    <row r="26" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="34"/>
+    </row>
+    <row r="26" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>41</v>
       </c>
@@ -2008,17 +2057,19 @@
         <v>2.9148693597865562E-2</v>
       </c>
       <c r="P26" s="32">
-        <v>5.8984602750043668E-3</v>
+        <v>5.463470396395791E-3</v>
       </c>
       <c r="Q26" s="32" t="s">
         <v>33</v>
       </c>
       <c r="R26" s="32">
-        <f>R27/R28*100</f>
-        <v>2.8058906055606046E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2.6258986271009258E-2</v>
+      </c>
+      <c r="S26" s="32">
+        <v>2.9862706272327785E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>44</v>
       </c>
@@ -2073,8 +2124,11 @@
       <c r="R27" s="34">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="36">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>42</v>
       </c>
@@ -2121,16 +2175,19 @@
         <v>42540.5</v>
       </c>
       <c r="P28" s="37">
-        <v>44079.3</v>
+        <v>47588.800000000003</v>
       </c>
       <c r="Q28" s="37">
-        <v>47183.5</v>
+        <v>50996.5</v>
       </c>
       <c r="R28" s="44">
-        <v>56666.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>60550.7</v>
+      </c>
+      <c r="S28" s="37">
+        <v>77621.899999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>21</v>
       </c>
@@ -2155,8 +2212,9 @@
       <c r="P29" s="34"/>
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
-    </row>
-    <row r="30" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S29" s="34"/>
+    </row>
+    <row r="30" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>41</v>
       </c>
@@ -2220,11 +2278,13 @@
         <v>33</v>
       </c>
       <c r="R30" s="32">
-        <f>R31/R32*100</f>
-        <v>0.19015052770834487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.1866576475393098</v>
+      </c>
+      <c r="S30" s="32">
+        <v>5.7454534311847886E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>44</v>
       </c>
@@ -2279,8 +2339,11 @@
       <c r="R31" s="34">
         <v>58.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="36">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>42</v>
       </c>
@@ -2327,16 +2390,19 @@
         <v>14789.9</v>
       </c>
       <c r="P32" s="37">
-        <v>16531.2</v>
+        <v>16899.5</v>
       </c>
       <c r="Q32" s="37">
-        <v>17405.3</v>
+        <v>17902.5</v>
       </c>
       <c r="R32" s="44">
-        <v>30765.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>31340.799999999999</v>
+      </c>
+      <c r="S32" s="37">
+        <v>39161.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>24</v>
       </c>
@@ -2361,8 +2427,9 @@
       <c r="P33" s="34"/>
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
-    </row>
-    <row r="34" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S33" s="34"/>
+    </row>
+    <row r="34" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>41</v>
       </c>
@@ -2418,17 +2485,19 @@
         <v>7.3427448865606105E-3</v>
       </c>
       <c r="P34" s="32">
-        <v>2.3302011546146723E-3</v>
+        <v>2.2850875188519721E-3</v>
       </c>
       <c r="Q34" s="32">
-        <v>1.1900270969169968E-5</v>
+        <v>1.1768541042198458E-5</v>
       </c>
       <c r="R34" s="32">
-        <f>R35/R36*100</f>
-        <v>7.1009394461267222E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7.0392715837282238E-2</v>
+      </c>
+      <c r="S34" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>44</v>
       </c>
@@ -2483,8 +2552,11 @@
       <c r="R35" s="34">
         <v>78.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>42</v>
       </c>
@@ -2531,16 +2603,19 @@
         <v>83075.199999999997</v>
       </c>
       <c r="P36" s="37">
-        <v>85829.5</v>
+        <v>87524</v>
       </c>
       <c r="Q36" s="37">
-        <v>84031.7</v>
+        <v>84972.3</v>
       </c>
       <c r="R36" s="44">
-        <v>110267.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>111233.1</v>
+      </c>
+      <c r="S36" s="37">
+        <v>146415.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>27</v>
       </c>
@@ -2565,8 +2640,9 @@
       <c r="P37" s="34"/>
       <c r="Q37" s="34"/>
       <c r="R37" s="34"/>
-    </row>
-    <row r="38" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="34"/>
+    </row>
+    <row r="38" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>41</v>
       </c>
@@ -2619,7 +2695,7 @@
         <v>0.37255420274531015</v>
       </c>
       <c r="P38" s="32">
-        <v>4.6929382203002752E-2</v>
+        <v>4.3705075138820125E-2</v>
       </c>
       <c r="Q38" s="32" t="s">
         <v>33</v>
@@ -2627,8 +2703,11 @@
       <c r="R38" s="32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>44</v>
       </c>
@@ -2683,8 +2762,11 @@
       <c r="R39" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>42</v>
       </c>
@@ -2731,16 +2813,19 @@
         <v>230006.8</v>
       </c>
       <c r="P40" s="38">
-        <v>247179.9</v>
+        <v>265415.40000000002</v>
       </c>
       <c r="Q40" s="38">
-        <v>231841.7</v>
+        <v>251304.9</v>
       </c>
       <c r="R40" s="45">
-        <v>297797.59999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <v>321994.3</v>
+      </c>
+      <c r="S40" s="38">
+        <v>417953.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>30</v>
       </c>
@@ -2765,8 +2850,9 @@
       <c r="P41" s="34"/>
       <c r="Q41" s="34"/>
       <c r="R41" s="34"/>
-    </row>
-    <row r="42" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="34"/>
+    </row>
+    <row r="42" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>41</v>
       </c>
@@ -2820,7 +2906,7 @@
         <v>33</v>
       </c>
       <c r="P42" s="32">
-        <v>1.16791390138719E-3</v>
+        <v>1.0902093747104133E-3</v>
       </c>
       <c r="Q42" s="32" t="s">
         <v>33</v>
@@ -2828,8 +2914,11 @@
       <c r="R42" s="32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42" s="32">
+        <v>1.8652382333141725E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>44</v>
       </c>
@@ -2884,8 +2973,11 @@
       <c r="R43" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S43" s="36">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
@@ -2932,16 +3024,19 @@
         <v>32364.6</v>
       </c>
       <c r="P44" s="39">
-        <v>34249.1</v>
+        <v>36690.199999999997</v>
       </c>
       <c r="Q44" s="39">
-        <v>33881.1</v>
+        <v>36415.199999999997</v>
       </c>
       <c r="R44" s="46">
-        <v>39827.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <v>42700.6</v>
+      </c>
+      <c r="S44" s="39">
+        <v>58973.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>46</v>
       </c>
@@ -2964,7 +3059,7 @@
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2978,7 +3073,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2992,7 +3087,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>

--- a/untranslated/downloads/data-excel/11.5.2.xlsx
+++ b/untranslated/downloads/data-excel/11.5.2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="52">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -363,7 +363,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -419,9 +419,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -443,9 +440,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -496,6 +490,24 @@
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -779,21 +791,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="40.28515625" customWidth="1"/>
+    <col min="4" max="19" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -804,7 +812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -824,7 +832,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -838,7 +846,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -896,8 +904,11 @@
       <c r="S4" s="14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -907,213 +918,223 @@
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-    </row>
-    <row r="6" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+    </row>
+    <row r="6" spans="1:20" s="29" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="30">
         <f t="shared" ref="D6:N6" si="0">D7/D8*100</f>
         <v>0.10246818658794328</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <f t="shared" si="0"/>
         <v>0.65742194211559124</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="30">
         <f t="shared" si="0"/>
         <v>3.7073315214123242E-2</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="30">
         <f t="shared" si="0"/>
         <v>0.23456080316087585</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="30">
         <f t="shared" si="0"/>
         <v>0.32864888906605183</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="30">
         <f t="shared" si="0"/>
         <v>0.29790193167613238</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="30">
         <f t="shared" si="0"/>
         <v>6.2089284729188267E-2</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="30">
         <f t="shared" si="0"/>
         <v>0.11372768247091296</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="30">
         <f t="shared" si="0"/>
         <v>0.53209207938685588</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="30">
         <f t="shared" si="0"/>
         <v>0.2112395744809494</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="30">
         <f t="shared" si="0"/>
         <v>0.19367522395465053</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="30">
         <v>0.21331765327398514</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="30">
         <v>4.9509552683179234E-2</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="30">
         <v>4.4166007693658721E-2</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="30">
         <v>0.24676750194768041</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="30">
         <v>0.45060537180407323</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="T6" s="30">
+        <v>2.2208393003081583E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="34">
         <v>145.4</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="34">
         <v>1235.9000000000001</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="34">
         <v>74.599999999999994</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>516.9</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="34">
         <v>939.9</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="34">
         <v>924.9</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="34">
         <v>220.6</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="34">
         <v>455.7</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="34">
         <v>2290.6</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="34">
         <v>1006.2</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="34">
         <v>1027.4000000000001</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="34">
         <v>1214.5999999999999</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="34">
         <v>323.8</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="34">
         <v>265.8</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="32">
         <v>1931.83</v>
       </c>
-      <c r="S7" s="36">
+      <c r="S7" s="34">
         <v>4599.53</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="34">
+        <v>296.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>141897.70000000001</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="38">
         <v>187991.9</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="38">
         <v>201222.9</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="39">
         <v>220369.3</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="39">
         <v>285989.09999999998</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="38">
         <v>310471.3</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="35">
         <v>355294.8</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="35">
         <v>400694</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="35">
         <v>430489.4</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="35">
         <v>476331.2</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="35">
         <v>530475.69999999995</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="34">
         <v>569385.6</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="34">
         <v>654015.19999999995</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="34">
         <v>639688.6</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="32">
         <v>782854.3</v>
       </c>
-      <c r="S8" s="36">
+      <c r="S8" s="34">
         <v>1020744.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="T8" s="34">
+        <v>1333730</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1122,213 +1143,223 @@
       <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-    </row>
-    <row r="10" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+    </row>
+    <row r="10" spans="1:20" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="30">
         <f t="shared" ref="D10:N10" si="1">D11/D12*100</f>
         <v>0.35895057371594508</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="30">
         <f t="shared" si="1"/>
         <v>2.1262718497260633</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="30">
         <f t="shared" si="1"/>
         <v>0.40389905703881562</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="30">
         <f t="shared" si="1"/>
         <v>0.3331383668590901</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="30">
         <f t="shared" si="1"/>
         <v>4.3078124999999998</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="30">
         <f t="shared" si="1"/>
         <v>1.9565741329068163</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="30">
         <f t="shared" si="1"/>
         <v>2.9689644252084875E-2</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="30">
         <f t="shared" si="1"/>
         <v>0.25113038858805564</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="30">
         <f t="shared" si="1"/>
         <v>3.4380474132897345</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="30">
         <f t="shared" si="1"/>
         <v>2.2104997268449713</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="30">
         <f t="shared" si="1"/>
         <v>0.75356267687790601</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="30">
         <v>1.0352068504731518</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="30">
         <v>0.10428573380269503</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="30">
         <v>0.32994514007393211</v>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="30">
         <v>5.7337916723589819</v>
       </c>
-      <c r="S10" s="32">
+      <c r="S10" s="30">
         <v>11.235280554462966</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="T10" s="30">
+        <v>0.19486358452495833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="24" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="34">
         <v>17.8</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="34">
         <v>130.4</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="34">
         <v>25.4</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>26.2</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="34">
         <v>551.4</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="34">
         <v>267.89999999999998</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="34">
         <v>4.5</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="34">
         <v>41.6</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="34">
         <v>588.79999999999995</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="34">
         <v>376.3</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="34">
         <v>135</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="34">
         <v>189.8</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="34">
         <v>22.9</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="34">
         <v>75.599999999999994</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="32">
         <v>1552.9</v>
       </c>
-      <c r="S11" s="36">
+      <c r="S11" s="34">
         <v>4141.83</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="34">
+        <v>88.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>4958.8999999999996</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="38">
         <v>6132.8</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="38">
         <v>6288.7</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="39">
         <v>7864.6</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="39">
         <v>12800</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="38">
         <v>13692.3</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="35">
         <v>15156.8</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="35">
         <v>16565.099999999999</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="35">
         <v>17126</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="35">
         <v>17023.3</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="35">
         <v>17914.900000000001</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="34">
         <v>18334.5</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="34">
         <v>21958.9</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="34">
         <v>22912.9</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="32">
         <v>27083.3</v>
       </c>
-      <c r="S12" s="36">
+      <c r="S12" s="34">
         <v>36864.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="T12" s="34">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1337,213 +1368,223 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-    </row>
-    <row r="14" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+    </row>
+    <row r="14" spans="1:20" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="30">
         <f t="shared" ref="D14:N14" si="2">D15/D16*100</f>
         <v>0.41211761725580326</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="30">
         <f t="shared" si="2"/>
         <v>0.13699417111897721</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="30">
         <f t="shared" si="2"/>
         <v>1.5857097551149852E-2</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="30">
         <f t="shared" si="2"/>
         <v>1.1547187189756636</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="30">
         <f t="shared" si="2"/>
         <v>0.4532643574382938</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="30">
         <f t="shared" si="2"/>
         <v>1.0164247962138719</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="30">
         <f t="shared" si="2"/>
         <v>0.10130901916873285</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="30">
         <f t="shared" si="2"/>
         <v>7.247908676350677E-2</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="30">
         <f t="shared" si="2"/>
         <v>0.17286804541290271</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="30">
         <f t="shared" si="2"/>
         <v>0.44151746683392251</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="30">
         <f t="shared" si="2"/>
         <v>0.19622195137093956</v>
       </c>
-      <c r="O14" s="32">
+      <c r="O14" s="30">
         <v>0.10885194791232716</v>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="30">
         <v>0.22365258591677686</v>
       </c>
-      <c r="Q14" s="32">
+      <c r="Q14" s="30">
         <v>0.2553714042364526</v>
       </c>
-      <c r="R14" s="32">
+      <c r="R14" s="30">
         <v>0.14402634410265402</v>
       </c>
-      <c r="S14" s="32">
+      <c r="S14" s="30">
         <v>0.13714441087278004</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="T14" s="30">
+        <v>3.6704632127340459E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="24" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="34">
         <v>66.7</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="34">
         <v>31</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="34">
         <v>3.7</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="34">
         <v>305.89999999999998</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="34">
         <v>148.6</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="34">
         <v>375.2</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="34">
         <v>38</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="34">
         <v>31.2</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="34">
         <v>85.1</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="34">
         <v>232.3</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="34">
         <v>120.1</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="34">
         <v>72.900000000000006</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="34">
         <v>168.8</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="34">
         <v>175.1</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="32">
         <v>125.7</v>
       </c>
-      <c r="S15" s="36">
+      <c r="S15" s="34">
         <v>148.29</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="34">
+        <v>53.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>16184.7</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <v>22628.7</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="38">
         <v>23333.4</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="39">
         <v>26491.3</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="39">
         <v>32784.400000000001</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="38">
         <v>36913.699999999997</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="35">
         <v>37509</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="35">
         <v>43046.9</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="35">
         <v>49228.3</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="35">
         <v>52614</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="35">
         <v>61206.2</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="35">
         <v>66971.7</v>
       </c>
-      <c r="P16" s="37">
+      <c r="P16" s="35">
         <v>75474.2</v>
       </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="35">
         <v>68566.8</v>
       </c>
-      <c r="R16" s="44">
+      <c r="R16" s="42">
         <v>87275.7</v>
       </c>
-      <c r="S16" s="37">
+      <c r="S16" s="35">
         <v>108126.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="T16" s="35">
+        <v>144613.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1552,213 +1593,223 @@
       <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-    </row>
-    <row r="18" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+    </row>
+    <row r="18" spans="1:20" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="30">
         <f t="shared" ref="D18:N18" si="3">D19/D20*100</f>
         <v>3.2387824768912868E-3</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="30">
         <f t="shared" si="3"/>
         <v>3.292599177790948E-3</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="30">
         <f t="shared" si="3"/>
         <v>3.4456744091575148E-2</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="30">
         <f t="shared" si="3"/>
         <v>1.6919567197471088E-3</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="30">
         <f t="shared" si="3"/>
         <v>1.2270876117402187E-2</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="30">
         <f t="shared" si="3"/>
         <v>0.1121020239409966</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="30">
         <f t="shared" si="3"/>
         <v>0.14830592040389698</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="30">
         <f t="shared" si="3"/>
         <v>0.68585838169761015</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="30">
         <f t="shared" si="3"/>
         <v>1.5295896130932872E-2</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="30">
         <f t="shared" si="3"/>
         <v>0.16956708384241984</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="30">
         <f t="shared" si="3"/>
         <v>0.13072808713135689</v>
       </c>
-      <c r="O18" s="32">
+      <c r="O18" s="30">
         <v>0.11036279910995825</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="30">
         <v>1.2770569245247851E-2</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="30">
         <v>4.5222216318210645E-4</v>
       </c>
-      <c r="R18" s="32">
+      <c r="R18" s="30">
         <v>0.12078217371532514</v>
       </c>
-      <c r="S18" s="32">
+      <c r="S18" s="30">
         <v>0.25756792346149271</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="T18" s="30">
+        <v>1.257968536481929E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="24" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="34">
         <v>0.5</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="34">
         <v>0.7</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="34">
         <v>9.5</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="34">
         <v>0.6</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="34">
         <v>5.3</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="34">
         <v>40.4</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="34">
         <v>75.2</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="34">
         <v>356.3</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="34">
         <v>7.7</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="34">
         <v>102.7</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="34">
         <v>84.2</v>
       </c>
-      <c r="O19" s="36">
+      <c r="O19" s="34">
         <v>74.2</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="34">
         <v>11.1</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="34">
         <v>0.4</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="32">
         <v>99.6</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="34">
         <v>276.97000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="34">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="36">
         <v>15437.9</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="38">
         <v>21259.8</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="38">
         <v>27570.799999999999</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="39">
         <v>35461.9</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="39">
         <v>43191.7</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="38">
         <v>36038.6</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="35">
         <v>50706</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="35">
         <v>51949.5</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="35">
         <v>50340.3</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="35">
         <v>60566</v>
       </c>
-      <c r="N20" s="37">
+      <c r="N20" s="35">
         <v>64408.5</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="35">
         <v>67232.800000000003</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="35">
         <v>86918.6</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="35">
         <v>88452.1</v>
       </c>
-      <c r="R20" s="44">
+      <c r="R20" s="42">
         <v>82462.5</v>
       </c>
-      <c r="S20" s="37">
+      <c r="S20" s="35">
         <v>107532.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="T20" s="35">
+        <v>118842.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1767,213 +1818,223 @@
       <c r="C21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-    </row>
-    <row r="22" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+    </row>
+    <row r="22" spans="1:20" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="30">
         <f t="shared" ref="D22:N22" si="4">D23/D24*100</f>
         <v>9.5689201473613695E-3</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="30">
         <f t="shared" si="4"/>
         <v>3.5206840186093297E-2</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="30">
         <f t="shared" si="4"/>
         <v>8.4561828790483979E-3</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="30">
         <f t="shared" si="4"/>
         <v>1.6509498804057954</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="30">
         <f t="shared" si="4"/>
         <v>1.5924614716449732</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="30">
         <f t="shared" si="4"/>
         <v>1.5623617868199913</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="30">
         <f t="shared" si="4"/>
         <v>0.74169192048898247</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="30">
         <f t="shared" si="4"/>
         <v>3.7975801466042569E-2</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="30">
         <f t="shared" si="4"/>
         <v>0.21439533574463815</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="30">
         <f t="shared" si="4"/>
         <v>0.15729924947802046</v>
       </c>
-      <c r="N22" s="32">
+      <c r="N22" s="30">
         <f t="shared" si="4"/>
         <v>9.1701711526475299E-2</v>
       </c>
-      <c r="O22" s="32">
+      <c r="O22" s="30">
         <v>9.9505316426906232E-3</v>
       </c>
-      <c r="P22" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="32">
+      <c r="P22" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="30">
         <v>8.0372576436522181E-2</v>
       </c>
-      <c r="R22" s="32">
+      <c r="R22" s="30">
         <v>4.9414438899046302E-3</v>
       </c>
-      <c r="S22" s="32">
+      <c r="S22" s="30">
         <v>2.4524285805813215E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="T22" s="30">
+        <v>2.3976143736981703E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="24" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="34">
         <v>0.6</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="34">
         <v>2.8</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="34">
         <v>0.6</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="34">
         <v>120.1</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="34">
         <v>121</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="34">
         <v>141.30000000000001</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="34">
         <v>72.2</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="34">
         <v>4.3</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="34">
         <v>27.8</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="34">
         <v>22.3</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23" s="34">
         <v>12.8</v>
       </c>
-      <c r="O23" s="36">
+      <c r="O23" s="34">
         <v>1.4</v>
       </c>
-      <c r="P23" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="36">
+      <c r="P23" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="34">
         <v>14.6</v>
       </c>
-      <c r="R23" s="34">
+      <c r="R23" s="32">
         <v>0.9</v>
       </c>
-      <c r="S23" s="36">
+      <c r="S23" s="34">
         <v>6.89</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="36">
         <v>6270.3</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="38">
         <v>7953</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="38">
         <v>7095.4</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="39">
         <v>7274.6</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="39">
         <v>7598.3</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="38">
         <v>9044</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="35">
         <v>9734.5</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="35">
         <v>11323</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="35">
         <v>12966.7</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="35">
         <v>14176.8</v>
       </c>
-      <c r="N24" s="37">
+      <c r="N24" s="35">
         <v>13958.3</v>
       </c>
-      <c r="O24" s="37">
+      <c r="O24" s="35">
         <v>14069.6</v>
       </c>
-      <c r="P24" s="37">
+      <c r="P24" s="35">
         <v>15545.6</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="35">
         <v>18165.400000000001</v>
       </c>
-      <c r="R24" s="44">
+      <c r="R24" s="42">
         <v>18213.3</v>
       </c>
-      <c r="S24" s="37">
+      <c r="S24" s="35">
         <v>28094.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="T24" s="35">
+        <v>33366.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1982,213 +2043,223 @@
       <c r="C25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-    </row>
-    <row r="26" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+    </row>
+    <row r="26" spans="1:20" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="30">
         <f t="shared" ref="D26:N26" si="5">D27/D28*100</f>
         <v>4.2932786337833324E-2</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="30">
         <f t="shared" si="5"/>
         <v>5.639405961296144</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="30">
         <f t="shared" si="5"/>
         <v>5.7255116191116541E-2</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="30">
         <f t="shared" si="5"/>
         <v>0.19852162660287834</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="30">
         <f t="shared" si="5"/>
         <v>0.36986938326922264</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="30">
         <f t="shared" si="5"/>
         <v>0.1783403594244167</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J26" s="30">
         <f t="shared" si="5"/>
         <v>1.0609497329333431E-2</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="30">
         <f t="shared" si="5"/>
         <v>3.5696553335518404E-3</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="30">
         <f t="shared" si="5"/>
         <v>4.3025606575266426</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="30">
         <f t="shared" si="5"/>
         <v>4.9422187511440313E-2</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="30">
         <f t="shared" si="5"/>
         <v>0.70285464225020877</v>
       </c>
-      <c r="O26" s="32">
+      <c r="O26" s="30">
         <v>2.9148693597865562E-2</v>
       </c>
-      <c r="P26" s="32">
+      <c r="P26" s="30">
         <v>5.463470396395791E-3</v>
       </c>
-      <c r="Q26" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="R26" s="32">
+      <c r="Q26" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="30">
         <v>2.6258986271009258E-2</v>
       </c>
-      <c r="S26" s="32">
+      <c r="S26" s="30">
         <v>2.9862706272327785E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="T26" s="30">
+        <v>3.0092760157599198E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="24" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="34">
         <v>6.3</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="34">
         <v>1024.9000000000001</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="34">
         <v>10.9</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="34">
         <v>40.5</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="34">
         <v>105</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="34">
         <v>48.1</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="34">
         <v>2.9</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="34">
         <v>1364.2</v>
       </c>
-      <c r="M27" s="36">
+      <c r="M27" s="34">
         <v>16.2</v>
       </c>
-      <c r="N27" s="36">
+      <c r="N27" s="34">
         <v>261.8</v>
       </c>
-      <c r="O27" s="36">
+      <c r="O27" s="34">
         <v>12.4</v>
       </c>
-      <c r="P27" s="36">
+      <c r="P27" s="34">
         <v>2.6</v>
       </c>
-      <c r="Q27" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="R27" s="34">
+      <c r="Q27" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="32">
         <v>15.9</v>
       </c>
-      <c r="S27" s="36">
+      <c r="S27" s="34">
         <v>23.18</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="34">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="36">
         <v>14674.1</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="38">
         <v>18173.900000000001</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="38">
         <v>19037.599999999999</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="39">
         <v>20400.8</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="39">
         <v>28388.400000000001</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="38">
         <v>26970.9</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="35">
         <v>27334</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="35">
         <v>30815.3</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="35">
         <v>31706.7</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="35">
         <v>32778.800000000003</v>
       </c>
-      <c r="N28" s="37">
+      <c r="N28" s="35">
         <v>37248.1</v>
       </c>
-      <c r="O28" s="37">
+      <c r="O28" s="35">
         <v>42540.5</v>
       </c>
-      <c r="P28" s="37">
+      <c r="P28" s="35">
         <v>47588.800000000003</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="35">
         <v>50996.5</v>
       </c>
-      <c r="R28" s="44">
+      <c r="R28" s="42">
         <v>60550.7</v>
       </c>
-      <c r="S28" s="37">
+      <c r="S28" s="35">
         <v>77621.899999999994</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="T28" s="35">
+        <v>96701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -2197,213 +2268,223 @@
       <c r="C29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-    </row>
-    <row r="30" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+    </row>
+    <row r="30" spans="1:20" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="30">
         <f t="shared" ref="D30:N30" si="6">D31/D32*100</f>
         <v>0.21097770154373929</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="30">
         <f t="shared" si="6"/>
         <v>5.1950505336733732E-2</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="30">
         <f t="shared" si="6"/>
         <v>0.40535398156880259</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="30">
         <f t="shared" si="6"/>
         <v>0.29973977138030167</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="30">
         <f t="shared" si="6"/>
         <v>4.5176640665000149E-2</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="30">
         <f t="shared" si="6"/>
         <v>0.51804706827648905</v>
       </c>
-      <c r="J30" s="32">
+      <c r="J30" s="30">
         <f t="shared" si="6"/>
         <v>5.9490008382683E-2</v>
       </c>
-      <c r="K30" s="32">
+      <c r="K30" s="30">
         <f t="shared" si="6"/>
         <v>8.0978812997835655E-3</v>
       </c>
-      <c r="L30" s="32">
+      <c r="L30" s="30">
         <f t="shared" si="6"/>
         <v>6.1364921328791878E-2</v>
       </c>
-      <c r="M30" s="32">
+      <c r="M30" s="30">
         <f t="shared" si="6"/>
         <v>0.51731756228544223</v>
       </c>
-      <c r="N30" s="32">
+      <c r="N30" s="30">
         <f t="shared" si="6"/>
         <v>9.2032029650591304E-2</v>
       </c>
-      <c r="O30" s="32">
+      <c r="O30" s="30">
         <v>4.7329596548996268E-3</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q30" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="R30" s="32">
+      <c r="P30" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="30">
         <v>0.1866576475393098</v>
       </c>
-      <c r="S30" s="32">
+      <c r="S30" s="30">
         <v>5.7454534311847886E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="T30" s="30">
+        <v>5.5977959286986837E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="34">
         <v>12.3</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="34">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="34">
         <v>24.5</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="34">
         <v>22</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="34">
         <v>3</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="34">
         <v>49</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="34">
         <v>6.6</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="34">
         <v>8.9</v>
       </c>
-      <c r="M31" s="36">
+      <c r="M31" s="34">
         <v>76.099999999999994</v>
       </c>
-      <c r="N31" s="36">
+      <c r="N31" s="34">
         <v>14.7</v>
       </c>
-      <c r="O31" s="36">
+      <c r="O31" s="34">
         <v>0.7</v>
       </c>
-      <c r="P31" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q31" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="R31" s="34">
+      <c r="P31" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" s="32">
         <v>58.5</v>
       </c>
-      <c r="S31" s="36">
+      <c r="S31" s="34">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="34">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="36">
         <v>5830</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="38">
         <v>8469.6</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="38">
         <v>6044.1</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="39">
         <v>7339.7</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="39">
         <v>6640.6</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="38">
         <v>9458.6</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32" s="35">
         <v>11094.3</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="35">
         <v>13583.8</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L32" s="35">
         <v>14503.4</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="35">
         <v>14710.5</v>
       </c>
-      <c r="N32" s="37">
+      <c r="N32" s="35">
         <v>15972.7</v>
       </c>
-      <c r="O32" s="37">
+      <c r="O32" s="35">
         <v>14789.9</v>
       </c>
-      <c r="P32" s="37">
+      <c r="P32" s="35">
         <v>16899.5</v>
       </c>
-      <c r="Q32" s="37">
+      <c r="Q32" s="35">
         <v>17902.5</v>
       </c>
-      <c r="R32" s="44">
+      <c r="R32" s="42">
         <v>31340.799999999999</v>
       </c>
-      <c r="S32" s="37">
+      <c r="S32" s="35">
         <v>39161.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="T32" s="35">
+        <v>41087.599999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -2412,211 +2493,221 @@
       <c r="C33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-    </row>
-    <row r="34" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+    </row>
+    <row r="34" spans="1:20" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="30">
         <f>D35/D36*100</f>
         <v>3.5581611084519037E-2</v>
       </c>
-      <c r="E34" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="32">
+      <c r="E34" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="30">
         <f t="shared" ref="G34:N34" si="7">G35/G36*100</f>
         <v>5.7008527805071079E-3</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="30">
         <f t="shared" si="7"/>
         <v>1.326049532685937E-2</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="30">
         <f t="shared" si="7"/>
         <v>4.0345547750142395E-3</v>
       </c>
-      <c r="J34" s="32">
+      <c r="J34" s="30">
         <f t="shared" si="7"/>
         <v>2.9167907854234933E-2</v>
       </c>
-      <c r="K34" s="32">
+      <c r="K34" s="30">
         <f t="shared" si="7"/>
         <v>3.3948249288784184E-2</v>
       </c>
-      <c r="L34" s="32">
+      <c r="L34" s="30">
         <f t="shared" si="7"/>
         <v>3.3196556265441837E-2</v>
       </c>
-      <c r="M34" s="32">
+      <c r="M34" s="30">
         <f t="shared" si="7"/>
         <v>0.11886239000127535</v>
       </c>
-      <c r="N34" s="32">
+      <c r="N34" s="30">
         <f t="shared" si="7"/>
         <v>0.23467780151573583</v>
       </c>
-      <c r="O34" s="32">
+      <c r="O34" s="30">
         <v>7.3427448865606105E-3</v>
       </c>
-      <c r="P34" s="32">
+      <c r="P34" s="30">
         <v>2.2850875188519721E-3</v>
       </c>
-      <c r="Q34" s="32">
+      <c r="Q34" s="30">
         <v>1.1768541042198458E-5</v>
       </c>
-      <c r="R34" s="32">
+      <c r="R34" s="30">
         <v>7.0392715837282238E-2</v>
       </c>
-      <c r="S34" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="S34" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" s="30">
+        <v>6.9897958905431878E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="24" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="34">
         <v>8.4</v>
       </c>
-      <c r="E35" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="36">
+      <c r="E35" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="34">
         <v>1.7</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="34">
         <v>5.6</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="34">
         <v>1.7</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="34">
         <v>14.1</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="34">
         <v>20</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="34">
         <v>24.4</v>
       </c>
-      <c r="M35" s="36">
+      <c r="M35" s="34">
         <v>93.2</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35" s="34">
         <v>207.5</v>
       </c>
-      <c r="O35" s="36">
+      <c r="O35" s="34">
         <v>6.1</v>
       </c>
-      <c r="P35" s="36">
+      <c r="P35" s="34">
         <v>2</v>
       </c>
-      <c r="Q35" s="36">
+      <c r="Q35" s="34">
         <v>0.01</v>
       </c>
-      <c r="R35" s="34">
+      <c r="R35" s="32">
         <v>78.3</v>
       </c>
-      <c r="S35" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S35" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="T35" s="34">
+        <v>128.16999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="36">
         <v>23607.7</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="38">
         <v>29137.3</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="38">
         <v>31566.400000000001</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="39">
         <v>29820.1</v>
       </c>
-      <c r="H36" s="41">
+      <c r="H36" s="39">
         <v>42230.7</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="38">
         <v>42136</v>
       </c>
-      <c r="J36" s="37">
+      <c r="J36" s="35">
         <v>48340.800000000003</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K36" s="35">
         <v>58913.2</v>
       </c>
-      <c r="L36" s="37">
+      <c r="L36" s="35">
         <v>73501.600000000006</v>
       </c>
-      <c r="M36" s="37">
+      <c r="M36" s="35">
         <v>78410</v>
       </c>
-      <c r="N36" s="37">
+      <c r="N36" s="35">
         <v>88419.1</v>
       </c>
-      <c r="O36" s="37">
+      <c r="O36" s="35">
         <v>83075.199999999997</v>
       </c>
-      <c r="P36" s="37">
+      <c r="P36" s="35">
         <v>87524</v>
       </c>
-      <c r="Q36" s="37">
+      <c r="Q36" s="35">
         <v>84972.3</v>
       </c>
-      <c r="R36" s="44">
+      <c r="R36" s="42">
         <v>111233.1</v>
       </c>
-      <c r="S36" s="37">
+      <c r="S36" s="35">
         <v>146415.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="T36" s="35">
+        <v>183367.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -2625,208 +2716,218 @@
       <c r="C37" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-    </row>
-    <row r="38" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+    </row>
+    <row r="38" spans="1:20" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="30">
         <f>D39/D40*100</f>
         <v>6.3779047196494923E-2</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="30">
         <f>E39/E40*100</f>
         <v>6.0758144519468954E-2</v>
       </c>
-      <c r="F38" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38" s="32">
+      <c r="F38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="30">
         <f>J39/J40*100</f>
         <v>5.1015871766504721E-4</v>
       </c>
-      <c r="K38" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" s="32">
+      <c r="K38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="30">
         <f>L39/L40*100</f>
         <v>2.8177981460527187E-2</v>
       </c>
-      <c r="M38" s="32">
+      <c r="M38" s="30">
         <f>M39/M40*100</f>
         <v>4.7987695689455469E-2</v>
       </c>
-      <c r="N38" s="32">
+      <c r="N38" s="30">
         <f>N39/N40*10</f>
         <v>6.4607393116575046E-3</v>
       </c>
-      <c r="O38" s="32">
+      <c r="O38" s="30">
         <v>0.37255420274531015</v>
       </c>
-      <c r="P38" s="32">
+      <c r="P38" s="30">
         <v>4.3705075138820125E-2</v>
       </c>
-      <c r="Q38" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="R38" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="S38" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="Q38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="T38" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="24" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="34">
         <v>32.200000000000003</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="34">
         <v>41.5</v>
       </c>
-      <c r="F39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="36">
+      <c r="F39" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="34">
         <v>0.7</v>
       </c>
-      <c r="K39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L39" s="36">
+      <c r="K39" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="34">
         <v>44.7</v>
       </c>
-      <c r="M39" s="36">
+      <c r="M39" s="34">
         <v>86.8</v>
       </c>
-      <c r="N39" s="36">
+      <c r="N39" s="34">
         <v>129.80000000000001</v>
       </c>
-      <c r="O39" s="36">
+      <c r="O39" s="34">
         <v>856.9</v>
       </c>
-      <c r="P39" s="36">
+      <c r="P39" s="34">
         <v>116</v>
       </c>
-      <c r="Q39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="R39" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="S39" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q39" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="S39" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="36">
         <v>50486.8</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="38">
         <v>68303.600000000006</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="38">
         <v>73540.2</v>
       </c>
-      <c r="G40" s="41">
+      <c r="G40" s="39">
         <v>79638.5</v>
       </c>
-      <c r="H40" s="41">
+      <c r="H40" s="39">
         <v>103286.5</v>
       </c>
-      <c r="I40" s="40">
+      <c r="I40" s="38">
         <v>120408.2</v>
       </c>
-      <c r="J40" s="38">
+      <c r="J40" s="36">
         <v>137212.20000000001</v>
       </c>
-      <c r="K40" s="38">
+      <c r="K40" s="36">
         <v>152866.6</v>
       </c>
-      <c r="L40" s="38">
+      <c r="L40" s="36">
         <v>158634.5</v>
       </c>
-      <c r="M40" s="38">
+      <c r="M40" s="36">
         <v>180879.7</v>
       </c>
-      <c r="N40" s="38">
+      <c r="N40" s="36">
         <v>200905.8</v>
       </c>
-      <c r="O40" s="38">
+      <c r="O40" s="36">
         <v>230006.8</v>
       </c>
-      <c r="P40" s="38">
+      <c r="P40" s="36">
         <v>265415.40000000002</v>
       </c>
-      <c r="Q40" s="38">
+      <c r="Q40" s="36">
         <v>251304.9</v>
       </c>
-      <c r="R40" s="45">
+      <c r="R40" s="43">
         <v>321994.3</v>
       </c>
-      <c r="S40" s="38">
+      <c r="S40" s="36">
         <v>417953.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="T40" s="36">
+        <v>595335.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -2835,215 +2936,225 @@
       <c r="C41" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-    </row>
-    <row r="42" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+    </row>
+    <row r="42" spans="1:20" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A42" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="31">
         <f>D43/D44*100</f>
         <v>1.5740241050548661E-2</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="31">
         <f>E43/E44*100</f>
         <v>3.3708622665677883E-3</v>
       </c>
-      <c r="F42" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" s="33">
+      <c r="F42" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="31">
         <f>I43/I44*100</f>
         <v>6.958061863495478E-3</v>
       </c>
-      <c r="J42" s="33">
+      <c r="J42" s="31">
         <f>J43/J44*100</f>
         <v>3.4601696032338848E-2</v>
       </c>
-      <c r="K42" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L42" s="33">
+      <c r="K42" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="31">
         <f>L43/L44*100</f>
         <v>0.61871994804709551</v>
       </c>
-      <c r="M42" s="33">
+      <c r="M42" s="31">
         <f>M43/M44*100</f>
         <v>1.1917956785488697E-3</v>
       </c>
-      <c r="N42" s="33">
+      <c r="N42" s="31">
         <f>N43/N44*100</f>
         <v>0.20202285650464327</v>
       </c>
-      <c r="O42" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="P42" s="32">
+      <c r="O42" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="P42" s="30">
         <v>1.0902093747104133E-3</v>
       </c>
-      <c r="Q42" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="R42" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="S42" s="32">
+      <c r="Q42" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="R42" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="S42" s="30">
         <v>1.8652382333141725E-4</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="T42" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="24" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="34">
         <v>0.7</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="34">
         <v>0.2</v>
       </c>
-      <c r="F43" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="36">
+      <c r="F43" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="34">
         <v>6.3</v>
       </c>
-      <c r="K43" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L43" s="36">
+      <c r="K43" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="34">
         <v>139.1</v>
       </c>
-      <c r="M43" s="36">
+      <c r="M43" s="34">
         <v>0.3</v>
       </c>
-      <c r="N43" s="36">
+      <c r="N43" s="34">
         <v>61.5</v>
       </c>
-      <c r="O43" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="P43" s="36">
+      <c r="O43" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="P43" s="34">
         <v>0.4</v>
       </c>
-      <c r="Q43" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="R43" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="S43" s="36">
+      <c r="Q43" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R43" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="S43" s="34">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
+      <c r="T43" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="39">
+      <c r="D44" s="37">
         <v>4447.2</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="40">
         <v>5933.2</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="40">
         <v>6746.3</v>
       </c>
-      <c r="G44" s="43">
+      <c r="G44" s="41">
         <v>6077.8</v>
       </c>
-      <c r="H44" s="43">
+      <c r="H44" s="41">
         <v>9068.5</v>
       </c>
-      <c r="I44" s="42">
+      <c r="I44" s="40">
         <v>15809</v>
       </c>
-      <c r="J44" s="39">
+      <c r="J44" s="37">
         <v>18207.2</v>
       </c>
-      <c r="K44" s="39">
+      <c r="K44" s="37">
         <v>21630.6</v>
       </c>
-      <c r="L44" s="39">
+      <c r="L44" s="37">
         <v>22481.9</v>
       </c>
-      <c r="M44" s="39">
+      <c r="M44" s="37">
         <v>25172.1</v>
       </c>
-      <c r="N44" s="39">
+      <c r="N44" s="37">
         <v>30442.1</v>
       </c>
-      <c r="O44" s="39">
+      <c r="O44" s="37">
         <v>32364.6</v>
       </c>
-      <c r="P44" s="39">
+      <c r="P44" s="37">
         <v>36690.199999999997</v>
       </c>
-      <c r="Q44" s="39">
+      <c r="Q44" s="37">
         <v>36415.199999999997</v>
       </c>
-      <c r="R44" s="46">
+      <c r="R44" s="44">
         <v>42700.6</v>
       </c>
-      <c r="S44" s="39">
+      <c r="S44" s="37">
         <v>58973.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="T44" s="37">
+        <v>74819.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="27" t="s">
         <v>48</v>
       </c>
       <c r="D45" s="15"/>
@@ -3059,7 +3170,7 @@
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3073,7 +3184,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3087,7 +3198,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
